--- a/Tennis/ATP Tour/Andy Roddick.xlsx
+++ b/Tennis/ATP Tour/Andy Roddick.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4059" documentId="13_ncr:1_{0A1EECD3-9448-4D45-9666-76DA02865CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3F0CD55-43C6-4253-ADC8-F7F750CC9A46}"/>
+  <xr:revisionPtr revIDLastSave="4060" documentId="13_ncr:1_{0A1EECD3-9448-4D45-9666-76DA02865CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{986888D5-230A-4867-8BF9-91E6AF3A849D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="37" r:id="rId1"/>
@@ -4958,7 +4958,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CA1A58C2-CADD-4173-B9CB-ABDE2C47EA08}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4970,7 +4970,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0C92248C-D7D2-4559-8BC5-472962E4D758}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5350,21 +5350,21 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>22</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>151</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>362</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>364</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>365</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>362</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>366</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>34</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>367</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>362</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>366</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>368</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>20</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>362</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>366</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>34</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>369</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>20</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>362</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>366</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>34</v>
       </c>
@@ -5863,21 +5863,21 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>362</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>366</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>362</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>366</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>330</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>362</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>366</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>331</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>362</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>366</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>654</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>19</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>20</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>362</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>366</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>362</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>154</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>20</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>362</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>22</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>19</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>343</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>20</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>362</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>366</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>22</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>362</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>366</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>34</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>151</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>20</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>362</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>366</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>34</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>20</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>362</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>366</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>53</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>22</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>19</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>117</v>
       </c>
@@ -6903,21 +6903,21 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>362</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>366</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>362</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>330</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>362</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>366</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>34</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>331</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>362</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>19</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>362</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>366</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>34</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>19</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>362</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>366</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>34</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>89</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>22</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>19</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>20</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>22</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>19</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>20</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>344</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>362</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>366</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>151</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>20</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>22</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>20</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>362</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>117</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>19</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>54</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>20</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>362</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>366</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>20</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>362</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>119</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>91</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>91</v>
       </c>
@@ -7906,21 +7906,21 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>362</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>366</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>331</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>362</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>366</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>34</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>573</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>19</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>20</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>154</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>362</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>366</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>22</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>19</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>345</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>362</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>366</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>22</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>19</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>20</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>362</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>90</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>117</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>19</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>20</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>362</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>362</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>98</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>20</v>
       </c>
@@ -8752,21 +8752,21 @@
   </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>330</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>362</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>331</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>346</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>362</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>19</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>328</v>
       </c>
@@ -8990,7 +8990,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>329</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>343</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>362</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>366</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>34</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>22</v>
       </c>
@@ -9154,7 +9154,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>344</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>362</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>366</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>34</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>352</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>345</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>22</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>19</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>20</v>
       </c>
@@ -9395,21 +9395,21 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>0.61904761904761907</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -9471,7 +9471,7 @@
         <v>0.63043478260869568</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>0.6071428571428571</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>0.73611111111111116</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>0.7567567567567568</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -9556,7 +9556,7 @@
       </c>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -9578,7 +9578,7 @@
       </c>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -9600,7 +9600,7 @@
       </c>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -9622,7 +9622,7 @@
       </c>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -9644,7 +9644,7 @@
       </c>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>0.61363636363636365</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>0.52941176470588236</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>0.43478260869565216</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>0.66185897435897434</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -9764,21 +9764,21 @@
   </sheetPr>
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>390</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>362</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>366</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -9891,7 +9891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>331</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>19</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>330</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>346</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>22</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>362</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>405</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>408</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>20</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>362</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>366</v>
       </c>
@@ -10151,7 +10151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>34</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>409</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>362</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>366</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>34</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>22</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>420</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>362</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>366</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>22</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>19</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>428</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>19</v>
       </c>
@@ -10473,7 +10473,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>20</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>362</v>
       </c>
@@ -10501,7 +10501,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>85</v>
       </c>
@@ -10521,7 +10521,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>151</v>
       </c>
@@ -10541,7 +10541,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>19</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>362</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>366</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>34</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>22</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>19</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>20</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>362</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>440</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>443</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>20</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>54</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>20</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>362</v>
       </c>
@@ -10789,7 +10789,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -10822,21 +10822,21 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10856,7 +10856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>448</v>
       </c>
@@ -10876,7 +10876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -10890,7 +10890,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>362</v>
       </c>
@@ -10904,7 +10904,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>366</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>22</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -10969,7 +10969,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>456</v>
       </c>
@@ -10980,7 +10980,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>331</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>362</v>
       </c>
@@ -11028,7 +11028,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>366</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>34</v>
       </c>
@@ -11056,7 +11056,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>330</v>
       </c>
@@ -11076,7 +11076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>20</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>362</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>366</v>
       </c>
@@ -11118,7 +11118,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>346</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -11152,7 +11152,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>362</v>
       </c>
@@ -11166,7 +11166,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>366</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>34</v>
       </c>
@@ -11194,7 +11194,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -11214,7 +11214,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>436</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>464</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -11290,7 +11290,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>409</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>20</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>362</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>366</v>
       </c>
@@ -11352,7 +11352,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>34</v>
       </c>
@@ -11366,7 +11366,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>19</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -11414,7 +11414,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>362</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>366</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>469</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>19</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>20</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>471</v>
       </c>
@@ -11507,7 +11507,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>473</v>
       </c>
@@ -11518,7 +11518,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>89</v>
       </c>
@@ -11538,7 +11538,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>420</v>
       </c>
@@ -11558,7 +11558,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>52</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>22</v>
       </c>
@@ -11592,7 +11592,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>19</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>428</v>
       </c>
@@ -11626,7 +11626,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>20</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>362</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>366</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -11688,7 +11688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>19</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>20</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>362</v>
       </c>
@@ -11730,7 +11730,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>366</v>
       </c>
@@ -11744,7 +11744,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>34</v>
       </c>
@@ -11758,7 +11758,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>85</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>19</v>
       </c>
@@ -11792,7 +11792,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>20</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>362</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>151</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>20</v>
       </c>
@@ -11854,7 +11854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>53</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>22</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>19</v>
       </c>
@@ -11902,7 +11902,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>20</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>362</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>78</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>473</v>
       </c>
@@ -11958,7 +11958,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>154</v>
       </c>
@@ -11978,7 +11978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>54</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>20</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>362</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -12046,7 +12046,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>20</v>
       </c>
@@ -12060,7 +12060,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>362</v>
       </c>
@@ -12087,21 +12087,21 @@
   </sheetPr>
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88:C94"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12121,7 +12121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>448</v>
       </c>
@@ -12141,7 +12141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -12175,7 +12175,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>22</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>19</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -12217,7 +12217,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>362</v>
       </c>
@@ -12231,7 +12231,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>366</v>
       </c>
@@ -12245,7 +12245,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>331</v>
       </c>
@@ -12265,7 +12265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>362</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>366</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>34</v>
       </c>
@@ -12321,7 +12321,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>346</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -12375,7 +12375,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -12389,7 +12389,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>362</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>19</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>464</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>409</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>20</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>362</v>
       </c>
@@ -12505,7 +12505,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>366</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>34</v>
       </c>
@@ -12533,7 +12533,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -12553,7 +12553,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>19</v>
       </c>
@@ -12567,7 +12567,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>500</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>19</v>
       </c>
@@ -12601,7 +12601,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>502</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>20</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>362</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>366</v>
       </c>
@@ -12663,7 +12663,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>34</v>
       </c>
@@ -12677,7 +12677,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -12697,7 +12697,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -12717,7 +12717,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>20</v>
       </c>
@@ -12731,7 +12731,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>362</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>366</v>
       </c>
@@ -12759,7 +12759,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>34</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -12793,7 +12793,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>22</v>
       </c>
@@ -12807,7 +12807,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>19</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -12835,7 +12835,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>362</v>
       </c>
@@ -12849,7 +12849,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>366</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>508</v>
       </c>
@@ -12883,7 +12883,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -12897,7 +12897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>362</v>
       </c>
@@ -12911,7 +12911,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>366</v>
       </c>
@@ -12925,7 +12925,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>34</v>
       </c>
@@ -12939,7 +12939,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>151</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -12973,7 +12973,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>362</v>
       </c>
@@ -12987,7 +12987,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>366</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -13021,7 +13021,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>19</v>
       </c>
@@ -13035,7 +13035,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -13049,7 +13049,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>362</v>
       </c>
@@ -13063,7 +13063,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>366</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>34</v>
       </c>
@@ -13091,7 +13091,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -13111,7 +13111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>19</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>362</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>366</v>
       </c>
@@ -13167,7 +13167,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>34</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>53</v>
       </c>
@@ -13201,7 +13201,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>22</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>19</v>
       </c>
@@ -13229,7 +13229,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>20</v>
       </c>
@@ -13243,7 +13243,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>362</v>
       </c>
@@ -13257,7 +13257,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>366</v>
       </c>
@@ -13271,7 +13271,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>34</v>
       </c>
@@ -13285,7 +13285,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>78</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
         <v>433</v>
       </c>
@@ -13313,7 +13313,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>154</v>
       </c>
@@ -13333,7 +13333,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>20</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>54</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>20</v>
       </c>
@@ -13381,7 +13381,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>362</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>366</v>
       </c>
@@ -13409,7 +13409,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>98</v>
       </c>
@@ -13429,7 +13429,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>20</v>
       </c>
@@ -13443,7 +13443,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>362</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>366</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>119</v>
       </c>
@@ -13491,7 +13491,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>91</v>
       </c>
@@ -13505,7 +13505,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>91</v>
       </c>
@@ -13519,7 +13519,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>366</v>
       </c>
@@ -13547,21 +13547,21 @@
   </sheetPr>
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13581,7 +13581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -13601,7 +13601,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -13615,7 +13615,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -13635,7 +13635,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>22</v>
       </c>
@@ -13649,7 +13649,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>19</v>
       </c>
@@ -13663,7 +13663,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>362</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -13708,7 +13708,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>412</v>
       </c>
@@ -13719,7 +13719,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>330</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>362</v>
       </c>
@@ -13767,7 +13767,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>366</v>
       </c>
@@ -13781,7 +13781,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>34</v>
       </c>
@@ -13795,7 +13795,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>331</v>
       </c>
@@ -13815,7 +13815,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -13829,7 +13829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>362</v>
       </c>
@@ -13843,7 +13843,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>527</v>
       </c>
@@ -13863,7 +13863,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -13877,7 +13877,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>362</v>
       </c>
@@ -13891,7 +13891,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>366</v>
       </c>
@@ -13905,7 +13905,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>19</v>
       </c>
@@ -13939,7 +13939,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>20</v>
       </c>
@@ -13953,7 +13953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>362</v>
       </c>
@@ -13967,7 +13967,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -13987,7 +13987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>19</v>
       </c>
@@ -14001,7 +14001,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>20</v>
       </c>
@@ -14015,7 +14015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>362</v>
       </c>
@@ -14029,7 +14029,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>366</v>
       </c>
@@ -14043,7 +14043,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>34</v>
       </c>
@@ -14057,7 +14057,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -14074,7 +14074,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>493</v>
       </c>
@@ -14085,7 +14085,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>409</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>20</v>
       </c>
@@ -14119,7 +14119,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>362</v>
       </c>
@@ -14133,7 +14133,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>366</v>
       </c>
@@ -14147,7 +14147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>34</v>
       </c>
@@ -14161,7 +14161,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -14181,7 +14181,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>22</v>
       </c>
@@ -14215,7 +14215,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>92</v>
       </c>
@@ -14235,7 +14235,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>20</v>
       </c>
@@ -14249,7 +14249,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>362</v>
       </c>
@@ -14263,7 +14263,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>366</v>
       </c>
@@ -14277,7 +14277,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>34</v>
       </c>
@@ -14291,7 +14291,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>52</v>
       </c>
@@ -14311,7 +14311,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>22</v>
       </c>
@@ -14325,7 +14325,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>19</v>
       </c>
@@ -14339,7 +14339,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -14353,7 +14353,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>362</v>
       </c>
@@ -14367,7 +14367,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>366</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>34</v>
       </c>
@@ -14395,7 +14395,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>508</v>
       </c>
@@ -14415,7 +14415,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -14429,7 +14429,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>362</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>366</v>
       </c>
@@ -14457,7 +14457,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>34</v>
       </c>
@@ -14471,7 +14471,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -14491,7 +14491,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>19</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>20</v>
       </c>
@@ -14519,7 +14519,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>362</v>
       </c>
@@ -14533,7 +14533,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>366</v>
       </c>
@@ -14547,7 +14547,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>34</v>
       </c>
@@ -14561,7 +14561,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -14581,7 +14581,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>19</v>
       </c>
@@ -14595,7 +14595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>20</v>
       </c>
@@ -14609,7 +14609,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>362</v>
       </c>
@@ -14623,7 +14623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>366</v>
       </c>
@@ -14637,7 +14637,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>352</v>
       </c>
@@ -14657,7 +14657,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>19</v>
       </c>
@@ -14671,7 +14671,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>20</v>
       </c>
@@ -14685,7 +14685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>53</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>22</v>
       </c>
@@ -14719,7 +14719,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>19</v>
       </c>
@@ -14733,7 +14733,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>20</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>362</v>
       </c>
@@ -14761,7 +14761,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>78</v>
       </c>
@@ -14781,7 +14781,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>18</v>
       </c>
@@ -14795,7 +14795,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>543</v>
       </c>
@@ -14815,7 +14815,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>20</v>
       </c>
@@ -14829,7 +14829,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>362</v>
       </c>
@@ -14843,7 +14843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>366</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>34</v>
       </c>
@@ -14871,7 +14871,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>98</v>
       </c>
@@ -14891,7 +14891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>20</v>
       </c>
@@ -14905,7 +14905,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>119</v>
       </c>
@@ -14925,7 +14925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>91</v>
       </c>
@@ -14939,7 +14939,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>91</v>
       </c>
@@ -14953,7 +14953,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>366</v>
       </c>
@@ -14967,7 +14967,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>78</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
         <v>531</v>
       </c>
@@ -15009,21 +15009,21 @@
   </sheetPr>
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15043,7 +15043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -15063,7 +15063,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -15077,7 +15077,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -15091,7 +15091,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -15105,7 +15105,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>362</v>
       </c>
@@ -15119,7 +15119,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>366</v>
       </c>
@@ -15133,7 +15133,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>330</v>
       </c>
@@ -15153,7 +15153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>20</v>
       </c>
@@ -15167,7 +15167,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>362</v>
       </c>
@@ -15181,7 +15181,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>366</v>
       </c>
@@ -15195,7 +15195,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>34</v>
       </c>
@@ -15209,7 +15209,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>331</v>
       </c>
@@ -15229,7 +15229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -15243,7 +15243,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>362</v>
       </c>
@@ -15257,7 +15257,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>366</v>
       </c>
@@ -15271,7 +15271,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -15288,7 +15288,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>534</v>
       </c>
@@ -15299,7 +15299,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -15319,7 +15319,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -15333,7 +15333,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -15347,7 +15347,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>362</v>
       </c>
@@ -15361,7 +15361,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>366</v>
       </c>
@@ -15375,7 +15375,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -15395,7 +15395,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>409</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>20</v>
       </c>
@@ -15429,7 +15429,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>362</v>
       </c>
@@ -15443,7 +15443,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>366</v>
       </c>
@@ -15457,7 +15457,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>34</v>
       </c>
@@ -15471,7 +15471,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -15491,7 +15491,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>19</v>
       </c>
@@ -15505,7 +15505,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>20</v>
       </c>
@@ -15519,7 +15519,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>469</v>
       </c>
@@ -15539,7 +15539,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -15559,7 +15559,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>22</v>
       </c>
@@ -15573,7 +15573,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -15593,7 +15593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -15607,7 +15607,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>362</v>
       </c>
@@ -15621,7 +15621,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>366</v>
       </c>
@@ -15635,7 +15635,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>34</v>
       </c>
@@ -15649,7 +15649,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -15669,7 +15669,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>22</v>
       </c>
@@ -15683,7 +15683,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>19</v>
       </c>
@@ -15697,7 +15697,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>20</v>
       </c>
@@ -15711,7 +15711,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>362</v>
       </c>
@@ -15725,7 +15725,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>366</v>
       </c>
@@ -15739,7 +15739,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>34</v>
       </c>
@@ -15753,7 +15753,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>508</v>
       </c>
@@ -15773,7 +15773,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>20</v>
       </c>
@@ -15787,7 +15787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>362</v>
       </c>
@@ -15801,7 +15801,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>151</v>
       </c>
@@ -15821,7 +15821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -15835,7 +15835,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>362</v>
       </c>
@@ -15849,7 +15849,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>366</v>
       </c>
@@ -15863,7 +15863,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>34</v>
       </c>
@@ -15877,7 +15877,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>84</v>
       </c>
@@ -15897,7 +15897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -15917,7 +15917,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>19</v>
       </c>
@@ -15931,7 +15931,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>20</v>
       </c>
@@ -15945,7 +15945,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>362</v>
       </c>
@@ -15959,7 +15959,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>366</v>
       </c>
@@ -15973,7 +15973,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>34</v>
       </c>
@@ -15987,7 +15987,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>53</v>
       </c>
@@ -16007,7 +16007,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -16024,7 +16024,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>522</v>
       </c>
@@ -16035,7 +16035,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>154</v>
       </c>
@@ -16055,7 +16055,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>559</v>
       </c>
@@ -16075,7 +16075,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>20</v>
       </c>
@@ -16089,7 +16089,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>362</v>
       </c>
@@ -16103,7 +16103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>366</v>
       </c>
@@ -16117,7 +16117,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>34</v>
       </c>
@@ -16131,7 +16131,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -16151,7 +16151,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>20</v>
       </c>
@@ -16165,7 +16165,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>362</v>
       </c>
@@ -16179,7 +16179,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>366</v>
       </c>
@@ -16206,21 +16206,21 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16240,7 +16240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -16260,7 +16260,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -16274,7 +16274,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -16288,7 +16288,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -16302,7 +16302,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -16319,7 +16319,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>403</v>
       </c>
@@ -16330,7 +16330,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>330</v>
       </c>
@@ -16350,7 +16350,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -16364,7 +16364,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>362</v>
       </c>
@@ -16378,7 +16378,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>366</v>
       </c>
@@ -16392,7 +16392,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>331</v>
       </c>
@@ -16412,7 +16412,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -16426,7 +16426,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>362</v>
       </c>
@@ -16440,7 +16440,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -16460,7 +16460,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -16474,7 +16474,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -16488,7 +16488,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -16508,7 +16508,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -16522,7 +16522,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -16536,7 +16536,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>362</v>
       </c>
@@ -16550,7 +16550,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -16567,7 +16567,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>578</v>
       </c>
@@ -16578,7 +16578,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>409</v>
       </c>
@@ -16598,7 +16598,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>20</v>
       </c>
@@ -16612,7 +16612,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>362</v>
       </c>
@@ -16626,7 +16626,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>88</v>
       </c>
@@ -16646,7 +16646,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -16660,7 +16660,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -16674,7 +16674,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>362</v>
       </c>
@@ -16688,7 +16688,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>471</v>
       </c>
@@ -16705,7 +16705,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -16725,7 +16725,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -16745,7 +16745,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>20</v>
       </c>
@@ -16759,7 +16759,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>362</v>
       </c>
@@ -16773,7 +16773,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>366</v>
       </c>
@@ -16787,7 +16787,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -16807,7 +16807,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>22</v>
       </c>
@@ -16821,7 +16821,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>19</v>
       </c>
@@ -16835,7 +16835,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>508</v>
       </c>
@@ -16855,7 +16855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>20</v>
       </c>
@@ -16869,7 +16869,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>362</v>
       </c>
@@ -16883,7 +16883,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>366</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>34</v>
       </c>
@@ -16911,7 +16911,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>342</v>
       </c>
@@ -16931,7 +16931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>18</v>
       </c>
@@ -16945,7 +16945,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>18</v>
       </c>
@@ -16959,7 +16959,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -16979,7 +16979,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>19</v>
       </c>
@@ -16993,7 +16993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -17007,7 +17007,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>362</v>
       </c>
@@ -17021,7 +17021,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>366</v>
       </c>
@@ -17035,7 +17035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>34</v>
       </c>
@@ -17049,7 +17049,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -17069,7 +17069,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>22</v>
       </c>
@@ -17083,7 +17083,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>19</v>
       </c>
@@ -17097,7 +17097,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>20</v>
       </c>
@@ -17111,7 +17111,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>362</v>
       </c>
@@ -17125,7 +17125,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>366</v>
       </c>
@@ -17139,7 +17139,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>34</v>
       </c>
@@ -17153,7 +17153,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -17170,7 +17170,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>427</v>
       </c>
@@ -17181,7 +17181,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>590</v>
       </c>
@@ -17201,7 +17201,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>20</v>
       </c>
@@ -17215,7 +17215,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>362</v>
       </c>
@@ -17229,7 +17229,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>366</v>
       </c>
@@ -17243,7 +17243,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>154</v>
       </c>
@@ -17263,7 +17263,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>20</v>
       </c>
@@ -17277,7 +17277,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>119</v>
       </c>
@@ -17297,7 +17297,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>91</v>
       </c>
@@ -17311,7 +17311,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>91</v>
       </c>
@@ -17338,21 +17338,21 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17372,7 +17372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -17392,7 +17392,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -17406,7 +17406,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -17420,7 +17420,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -17434,7 +17434,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>362</v>
       </c>
@@ -17448,7 +17448,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>366</v>
       </c>
@@ -17462,7 +17462,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -17479,7 +17479,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>592</v>
       </c>
@@ -17490,7 +17490,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>330</v>
       </c>
@@ -17510,7 +17510,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -17524,7 +17524,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>362</v>
       </c>
@@ -17538,7 +17538,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>366</v>
       </c>
@@ -17552,7 +17552,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>331</v>
       </c>
@@ -17572,7 +17572,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -17586,7 +17586,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>362</v>
       </c>
@@ -17600,7 +17600,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>366</v>
       </c>
@@ -17614,7 +17614,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>34</v>
       </c>
@@ -17628,7 +17628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -17648,7 +17648,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -17662,7 +17662,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -17676,7 +17676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>362</v>
       </c>
@@ -17690,7 +17690,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>366</v>
       </c>
@@ -17704,7 +17704,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -17724,7 +17724,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>19</v>
       </c>
@@ -17738,7 +17738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>20</v>
       </c>
@@ -17752,7 +17752,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>362</v>
       </c>
@@ -17766,7 +17766,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -17783,7 +17783,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -17803,7 +17803,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -17817,7 +17817,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>332</v>
       </c>
@@ -17837,7 +17837,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>20</v>
       </c>
@@ -17851,7 +17851,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>362</v>
       </c>
@@ -17865,7 +17865,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -17885,7 +17885,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>333</v>
       </c>
@@ -17905,7 +17905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -17919,7 +17919,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>362</v>
       </c>
@@ -17933,7 +17933,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>366</v>
       </c>
@@ -17947,7 +17947,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>34</v>
       </c>
@@ -17961,7 +17961,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -17981,7 +17981,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>22</v>
       </c>
@@ -17995,7 +17995,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>19</v>
       </c>
@@ -18009,7 +18009,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>20</v>
       </c>
@@ -18023,7 +18023,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>362</v>
       </c>
@@ -18037,7 +18037,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>151</v>
       </c>
@@ -18057,7 +18057,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>20</v>
       </c>
@@ -18071,7 +18071,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>362</v>
       </c>
@@ -18085,7 +18085,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>366</v>
       </c>
@@ -18099,7 +18099,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>34</v>
       </c>
@@ -18113,7 +18113,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -18133,7 +18133,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -18147,7 +18147,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>362</v>
       </c>
@@ -18161,7 +18161,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -18181,7 +18181,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>22</v>
       </c>
@@ -18195,7 +18195,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>19</v>
       </c>
@@ -18209,7 +18209,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>362</v>
       </c>
@@ -18237,7 +18237,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -18254,7 +18254,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>425</v>
       </c>
@@ -18265,7 +18265,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>334</v>
       </c>
@@ -18285,7 +18285,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>119</v>
       </c>
@@ -18305,7 +18305,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>91</v>
       </c>
@@ -18319,7 +18319,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>91</v>
       </c>
@@ -18333,7 +18333,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>366</v>
       </c>
@@ -18360,21 +18360,21 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -18394,7 +18394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -18414,7 +18414,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -18428,7 +18428,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -18442,7 +18442,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -18459,7 +18459,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>330</v>
       </c>
@@ -18479,7 +18479,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -18493,7 +18493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>362</v>
       </c>
@@ -18507,7 +18507,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>366</v>
       </c>
@@ -18521,7 +18521,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>34</v>
       </c>
@@ -18535,7 +18535,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>331</v>
       </c>
@@ -18555,7 +18555,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -18569,7 +18569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>362</v>
       </c>
@@ -18583,7 +18583,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -18603,7 +18603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -18617,7 +18617,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>362</v>
       </c>
@@ -18631,7 +18631,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>366</v>
       </c>
@@ -18645,7 +18645,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>34</v>
       </c>
@@ -18659,7 +18659,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -18679,7 +18679,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -18699,7 +18699,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -18713,7 +18713,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>20</v>
       </c>
@@ -18727,7 +18727,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>362</v>
       </c>
@@ -18741,7 +18741,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>366</v>
       </c>
@@ -18755,7 +18755,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -18772,7 +18772,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>557</v>
       </c>
@@ -18783,7 +18783,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>88</v>
       </c>
@@ -18803,7 +18803,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>20</v>
       </c>
@@ -18817,7 +18817,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>362</v>
       </c>
@@ -18831,7 +18831,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>366</v>
       </c>
@@ -18845,7 +18845,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>333</v>
       </c>
@@ -18865,7 +18865,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>20</v>
       </c>
@@ -18879,7 +18879,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>362</v>
       </c>
@@ -18893,7 +18893,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>366</v>
       </c>
@@ -18907,7 +18907,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -18927,7 +18927,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>22</v>
       </c>
@@ -18941,7 +18941,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -18961,7 +18961,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -18975,7 +18975,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>342</v>
       </c>
@@ -18995,7 +18995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>362</v>
       </c>
@@ -19009,7 +19009,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>366</v>
       </c>
@@ -19023,7 +19023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>34</v>
       </c>
@@ -19037,7 +19037,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>151</v>
       </c>
@@ -19057,7 +19057,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -19071,7 +19071,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>362</v>
       </c>
@@ -19085,7 +19085,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -19105,7 +19105,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>22</v>
       </c>
@@ -19119,7 +19119,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>19</v>
       </c>
@@ -19133,7 +19133,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>20</v>
       </c>
@@ -19147,7 +19147,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>362</v>
       </c>
@@ -19161,7 +19161,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -19178,7 +19178,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>531</v>
       </c>
@@ -19189,7 +19189,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>90</v>
       </c>
@@ -19209,7 +19209,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>362</v>
       </c>
@@ -19223,7 +19223,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>366</v>
       </c>
@@ -19237,7 +19237,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>34</v>
       </c>
@@ -19251,7 +19251,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>126</v>
       </c>
@@ -19271,7 +19271,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>20</v>
       </c>
@@ -19285,7 +19285,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>362</v>
       </c>
@@ -19299,7 +19299,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>366</v>
       </c>
@@ -19313,7 +19313,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>154</v>
       </c>
@@ -19333,7 +19333,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>20</v>
       </c>
@@ -19347,7 +19347,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>334</v>
       </c>
@@ -19367,7 +19367,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -19381,7 +19381,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>362</v>
       </c>
@@ -19395,7 +19395,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -19415,7 +19415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>20</v>
       </c>
@@ -19429,7 +19429,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>362</v>
       </c>
@@ -19443,7 +19443,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>119</v>
       </c>

--- a/Tennis/ATP Tour/Andy Roddick.xlsx
+++ b/Tennis/ATP Tour/Andy Roddick.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4063" documentId="13_ncr:1_{0A1EECD3-9448-4D45-9666-76DA02865CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5184415B-F9BA-4424-A9C0-8633D704A358}"/>
+  <xr:revisionPtr revIDLastSave="4073" documentId="13_ncr:1_{0A1EECD3-9448-4D45-9666-76DA02865CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6C8614A-4444-4167-9517-507AB3620578}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" firstSheet="5" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="37" r:id="rId1"/>
@@ -4949,7 +4949,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CA1A58C2-CADD-4173-B9CB-ABDE2C47EA08}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4961,7 +4961,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0C92248C-D7D2-4559-8BC5-472962E4D758}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5033,6 +5033,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5337,8 +5341,8 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5852,8 +5856,8 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6894,8 +6898,8 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7902,8 +7906,8 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8756,8 +8760,8 @@
   </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9396,10 +9400,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9740,27 +9744,29 @@
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17">
-        <v>2</v>
+      <c r="B16" s="2">
+        <f>AVERAGE(B2:B14)</f>
+        <v>19.53846153846154</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" ref="C16:E16" si="3">AVERAGE(C2:C14)</f>
+        <v>2.4615384615384617</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="3"/>
+        <v>16.23076923076923</v>
+      </c>
+      <c r="F16" s="3">
+        <f>(D16-E16)/D16</f>
+        <v>0.66185897435897434</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="2">
-        <f t="shared" ref="C18" si="3">SUM(C5:C17)</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19">
-        <v>1</v>
-      </c>
+      <c r="C18" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F14">
@@ -9784,8 +9790,8 @@
   </sheetPr>
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10844,8 +10850,8 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12111,8 +12117,8 @@
   </sheetPr>
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13576,8 +13582,8 @@
   </sheetPr>
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15039,7 +15045,7 @@
   <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16237,8 +16243,8 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17371,8 +17377,8 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18390,8 +18396,8 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/ATP Tour/Andy Roddick.xlsx
+++ b/Tennis/ATP Tour/Andy Roddick.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4073" documentId="13_ncr:1_{0A1EECD3-9448-4D45-9666-76DA02865CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6C8614A-4444-4167-9517-507AB3620578}"/>
+  <xr:revisionPtr revIDLastSave="4074" documentId="13_ncr:1_{0A1EECD3-9448-4D45-9666-76DA02865CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A2EACA0-E9F5-4A9B-8858-10564F9E2F16}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" firstSheet="5" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="37" r:id="rId1"/>
@@ -5035,10 +5035,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5345,17 +5341,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5375,7 +5371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>350</v>
       </c>
@@ -5395,7 +5391,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -5415,7 +5411,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>22</v>
       </c>
@@ -5429,7 +5425,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -5449,7 +5445,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>151</v>
       </c>
@@ -5469,7 +5465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -5483,7 +5479,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -5497,7 +5493,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>359</v>
       </c>
@@ -5511,7 +5507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -5531,7 +5527,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>361</v>
       </c>
@@ -5551,12 +5547,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>362</v>
       </c>
@@ -5573,7 +5569,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -5587,7 +5583,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>359</v>
       </c>
@@ -5601,7 +5597,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>363</v>
       </c>
@@ -5615,7 +5611,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>34</v>
       </c>
@@ -5629,7 +5625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>364</v>
       </c>
@@ -5649,7 +5645,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -5663,7 +5659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>359</v>
       </c>
@@ -5677,7 +5673,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>363</v>
       </c>
@@ -5691,7 +5687,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>365</v>
       </c>
@@ -5711,7 +5707,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>20</v>
       </c>
@@ -5725,7 +5721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>359</v>
       </c>
@@ -5739,7 +5735,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>363</v>
       </c>
@@ -5753,7 +5749,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>34</v>
       </c>
@@ -5767,7 +5763,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>366</v>
       </c>
@@ -5787,7 +5783,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>20</v>
       </c>
@@ -5801,7 +5797,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>359</v>
       </c>
@@ -5815,7 +5811,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>363</v>
       </c>
@@ -5829,7 +5825,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>34</v>
       </c>
@@ -5860,17 +5856,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5890,7 +5886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -5910,7 +5906,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -5924,7 +5920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>359</v>
       </c>
@@ -5938,7 +5934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>363</v>
       </c>
@@ -5952,7 +5948,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -5966,7 +5962,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -5986,7 +5982,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -6000,7 +5996,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -6014,7 +6010,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -6028,7 +6024,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>359</v>
       </c>
@@ -6042,7 +6038,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>363</v>
       </c>
@@ -6056,7 +6052,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>327</v>
       </c>
@@ -6076,7 +6072,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -6090,7 +6086,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>393</v>
       </c>
@@ -6101,7 +6097,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>19</v>
       </c>
@@ -6115,12 +6111,12 @@
         <v>695</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>328</v>
       </c>
@@ -6140,7 +6136,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -6154,7 +6150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>359</v>
       </c>
@@ -6168,7 +6164,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>363</v>
       </c>
@@ -6182,7 +6178,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -6196,7 +6192,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -6213,7 +6209,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>651</v>
       </c>
@@ -6224,7 +6220,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -6244,7 +6240,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>19</v>
       </c>
@@ -6258,7 +6254,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>20</v>
       </c>
@@ -6272,7 +6268,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>359</v>
       </c>
@@ -6286,7 +6282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>363</v>
       </c>
@@ -6300,7 +6296,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -6320,7 +6316,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -6334,7 +6330,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -6348,7 +6344,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>359</v>
       </c>
@@ -6362,7 +6358,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>154</v>
       </c>
@@ -6382,7 +6378,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>20</v>
       </c>
@@ -6396,7 +6392,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>359</v>
       </c>
@@ -6410,7 +6406,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -6430,7 +6426,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>22</v>
       </c>
@@ -6444,7 +6440,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>19</v>
       </c>
@@ -6458,7 +6454,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -6472,7 +6468,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>340</v>
       </c>
@@ -6492,7 +6488,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>20</v>
       </c>
@@ -6506,7 +6502,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>359</v>
       </c>
@@ -6520,7 +6516,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>363</v>
       </c>
@@ -6534,7 +6530,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -6554,7 +6550,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>22</v>
       </c>
@@ -6568,7 +6564,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -6582,7 +6578,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -6596,7 +6592,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>359</v>
       </c>
@@ -6610,7 +6606,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>363</v>
       </c>
@@ -6624,7 +6620,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>34</v>
       </c>
@@ -6638,7 +6634,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>151</v>
       </c>
@@ -6658,7 +6654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>20</v>
       </c>
@@ -6672,7 +6668,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>359</v>
       </c>
@@ -6686,7 +6682,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>363</v>
       </c>
@@ -6700,7 +6696,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>34</v>
       </c>
@@ -6714,7 +6710,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -6734,7 +6730,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>20</v>
       </c>
@@ -6748,7 +6744,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>359</v>
       </c>
@@ -6762,7 +6758,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>363</v>
       </c>
@@ -6776,7 +6772,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -6796,7 +6792,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>53</v>
       </c>
@@ -6816,7 +6812,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>22</v>
       </c>
@@ -6830,7 +6826,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>19</v>
       </c>
@@ -6844,7 +6840,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -6864,7 +6860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>117</v>
       </c>
@@ -6902,17 +6898,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6932,7 +6928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -6952,7 +6948,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -6966,7 +6962,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>359</v>
       </c>
@@ -6980,7 +6976,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>363</v>
       </c>
@@ -6994,7 +6990,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -7008,7 +7004,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -7028,7 +7024,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -7042,7 +7038,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -7056,7 +7052,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -7070,7 +7066,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>359</v>
       </c>
@@ -7084,7 +7080,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>327</v>
       </c>
@@ -7104,7 +7100,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -7118,7 +7114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>359</v>
       </c>
@@ -7132,7 +7128,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -7146,7 +7142,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -7160,12 +7156,12 @@
         <v>746</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>328</v>
       </c>
@@ -7185,7 +7181,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -7199,7 +7195,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>359</v>
       </c>
@@ -7213,7 +7209,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -7233,7 +7229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>19</v>
       </c>
@@ -7247,7 +7243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -7261,7 +7257,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>359</v>
       </c>
@@ -7275,7 +7271,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>363</v>
       </c>
@@ -7289,7 +7285,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>34</v>
       </c>
@@ -7303,7 +7299,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -7323,7 +7319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>19</v>
       </c>
@@ -7337,7 +7333,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -7351,7 +7347,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>359</v>
       </c>
@@ -7365,7 +7361,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>363</v>
       </c>
@@ -7379,7 +7375,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>34</v>
       </c>
@@ -7393,7 +7389,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>89</v>
       </c>
@@ -7413,7 +7409,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>22</v>
       </c>
@@ -7427,7 +7423,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>19</v>
       </c>
@@ -7441,7 +7437,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -7461,7 +7457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>20</v>
       </c>
@@ -7475,7 +7471,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -7495,7 +7491,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>22</v>
       </c>
@@ -7509,7 +7505,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>19</v>
       </c>
@@ -7523,7 +7519,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>20</v>
       </c>
@@ -7537,7 +7533,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>341</v>
       </c>
@@ -7557,7 +7553,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>359</v>
       </c>
@@ -7571,7 +7567,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>363</v>
       </c>
@@ -7585,7 +7581,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>151</v>
       </c>
@@ -7605,7 +7601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>20</v>
       </c>
@@ -7619,7 +7615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -7639,7 +7635,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>22</v>
       </c>
@@ -7653,7 +7649,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -7673,7 +7669,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>20</v>
       </c>
@@ -7687,7 +7683,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>359</v>
       </c>
@@ -7701,7 +7697,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>117</v>
       </c>
@@ -7721,7 +7717,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>19</v>
       </c>
@@ -7735,7 +7731,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>54</v>
       </c>
@@ -7755,7 +7751,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>20</v>
       </c>
@@ -7769,7 +7765,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>359</v>
       </c>
@@ -7783,7 +7779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>363</v>
       </c>
@@ -7797,7 +7793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -7817,7 +7813,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>20</v>
       </c>
@@ -7831,7 +7827,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>359</v>
       </c>
@@ -7845,7 +7841,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>119</v>
       </c>
@@ -7865,7 +7861,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>91</v>
       </c>
@@ -7879,7 +7875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>91</v>
       </c>
@@ -7910,17 +7906,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7940,7 +7936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -7960,7 +7956,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -7974,7 +7970,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>359</v>
       </c>
@@ -7988,7 +7984,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>363</v>
       </c>
@@ -8002,7 +7998,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -8016,7 +8012,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -8036,7 +8032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -8050,7 +8046,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -8064,7 +8060,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -8078,7 +8074,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>328</v>
       </c>
@@ -8098,7 +8094,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -8112,7 +8108,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>359</v>
       </c>
@@ -8126,7 +8122,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>363</v>
       </c>
@@ -8140,7 +8136,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -8154,12 +8150,12 @@
         <v>785</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -8179,7 +8175,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>570</v>
       </c>
@@ -8190,7 +8186,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -8210,7 +8206,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>19</v>
       </c>
@@ -8224,7 +8220,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>20</v>
       </c>
@@ -8238,7 +8234,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -8258,7 +8254,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>154</v>
       </c>
@@ -8278,7 +8274,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -8298,7 +8294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -8318,7 +8314,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -8332,7 +8328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>359</v>
       </c>
@@ -8346,7 +8342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>363</v>
       </c>
@@ -8360,7 +8356,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -8380,7 +8376,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>22</v>
       </c>
@@ -8394,7 +8390,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>19</v>
       </c>
@@ -8408,7 +8404,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -8425,7 +8421,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -8445,7 +8441,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>342</v>
       </c>
@@ -8465,7 +8461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -8479,7 +8475,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>359</v>
       </c>
@@ -8493,7 +8489,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>363</v>
       </c>
@@ -8507,7 +8503,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -8527,7 +8523,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>22</v>
       </c>
@@ -8541,7 +8537,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>19</v>
       </c>
@@ -8555,7 +8551,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>20</v>
       </c>
@@ -8569,7 +8565,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>359</v>
       </c>
@@ -8583,7 +8579,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>90</v>
       </c>
@@ -8603,7 +8599,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>117</v>
       </c>
@@ -8623,7 +8619,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>19</v>
       </c>
@@ -8637,7 +8633,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>20</v>
       </c>
@@ -8651,7 +8647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>359</v>
       </c>
@@ -8665,7 +8661,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -8685,7 +8681,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -8699,7 +8695,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>359</v>
       </c>
@@ -8713,7 +8709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>98</v>
       </c>
@@ -8733,7 +8729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>20</v>
       </c>
@@ -8764,17 +8760,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8794,7 +8790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -8814,7 +8810,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -8828,7 +8824,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>327</v>
       </c>
@@ -8848,7 +8844,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>359</v>
       </c>
@@ -8862,7 +8858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>328</v>
       </c>
@@ -8882,7 +8878,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>343</v>
       </c>
@@ -8902,7 +8898,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -8916,7 +8912,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>359</v>
       </c>
@@ -8930,7 +8926,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -8950,7 +8946,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>19</v>
       </c>
@@ -8964,7 +8960,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -8984,7 +8980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>19</v>
       </c>
@@ -8998,7 +8994,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -9012,7 +9008,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -9032,7 +9028,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -9052,7 +9048,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>340</v>
       </c>
@@ -9072,7 +9068,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -9086,7 +9082,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>359</v>
       </c>
@@ -9100,7 +9096,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>363</v>
       </c>
@@ -9114,7 +9110,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>34</v>
       </c>
@@ -9128,7 +9124,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -9148,7 +9144,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>22</v>
       </c>
@@ -9162,7 +9158,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -9176,7 +9172,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>341</v>
       </c>
@@ -9196,7 +9192,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>359</v>
       </c>
@@ -9210,7 +9206,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>363</v>
       </c>
@@ -9224,7 +9220,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>34</v>
       </c>
@@ -9238,7 +9234,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>349</v>
       </c>
@@ -9258,7 +9254,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -9272,7 +9268,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -9292,7 +9288,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>342</v>
       </c>
@@ -9312,7 +9308,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -9326,7 +9322,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -9346,7 +9342,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>22</v>
       </c>
@@ -9360,7 +9356,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>19</v>
       </c>
@@ -9374,7 +9370,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>20</v>
       </c>
@@ -9406,18 +9402,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -9437,7 +9433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -9458,7 +9454,7 @@
         <v>0.61904761904761907</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -9479,7 +9475,7 @@
         <v>0.63043478260869568</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -9500,7 +9496,7 @@
         <v>0.6071428571428571</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -9521,7 +9517,7 @@
         <v>0.73611111111111116</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -9542,7 +9538,7 @@
         <v>0.7567567567567568</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -9564,7 +9560,7 @@
       </c>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -9586,7 +9582,7 @@
       </c>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -9608,7 +9604,7 @@
       </c>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -9630,7 +9626,7 @@
       </c>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -9652,7 +9648,7 @@
       </c>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -9673,7 +9669,7 @@
         <v>0.61363636363636365</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -9694,7 +9690,7 @@
         <v>0.52941176470588236</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -9715,7 +9711,7 @@
         <v>0.43478260869565216</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -9740,7 +9736,7 @@
         <v>0.66185897435897434</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -9765,7 +9761,7 @@
         <v>0.66185897435897434</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
     </row>
   </sheetData>
@@ -9794,17 +9790,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9824,7 +9820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>387</v>
       </c>
@@ -9844,7 +9840,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -9858,7 +9854,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>359</v>
       </c>
@@ -9872,7 +9868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>363</v>
       </c>
@@ -9886,7 +9882,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -9900,7 +9896,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -9917,7 +9913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>328</v>
       </c>
@@ -9937,7 +9933,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>19</v>
       </c>
@@ -9951,7 +9947,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>327</v>
       </c>
@@ -9971,7 +9967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -9985,7 +9981,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>343</v>
       </c>
@@ -10005,12 +10001,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -10027,7 +10023,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>19</v>
       </c>
@@ -10041,7 +10037,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -10055,7 +10051,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -10069,7 +10065,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>359</v>
       </c>
@@ -10083,7 +10079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>402</v>
       </c>
@@ -10103,7 +10099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -10117,7 +10113,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>405</v>
       </c>
@@ -10137,7 +10133,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>20</v>
       </c>
@@ -10151,7 +10147,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>359</v>
       </c>
@@ -10165,7 +10161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>363</v>
       </c>
@@ -10179,7 +10175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>34</v>
       </c>
@@ -10193,7 +10189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>406</v>
       </c>
@@ -10213,7 +10209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -10227,7 +10223,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>359</v>
       </c>
@@ -10241,7 +10237,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>363</v>
       </c>
@@ -10255,7 +10251,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>34</v>
       </c>
@@ -10269,7 +10265,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -10289,7 +10285,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>22</v>
       </c>
@@ -10303,7 +10299,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -10317,7 +10313,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -10337,7 +10333,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>417</v>
       </c>
@@ -10357,7 +10353,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -10371,7 +10367,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>359</v>
       </c>
@@ -10385,7 +10381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>363</v>
       </c>
@@ -10399,7 +10395,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -10419,7 +10415,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>22</v>
       </c>
@@ -10433,7 +10429,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>19</v>
       </c>
@@ -10447,7 +10443,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>425</v>
       </c>
@@ -10467,7 +10463,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -10487,7 +10483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>19</v>
       </c>
@@ -10501,7 +10497,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>20</v>
       </c>
@@ -10515,7 +10511,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>359</v>
       </c>
@@ -10529,7 +10525,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>85</v>
       </c>
@@ -10549,7 +10545,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>151</v>
       </c>
@@ -10569,7 +10565,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>19</v>
       </c>
@@ -10583,7 +10579,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -10597,7 +10593,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>359</v>
       </c>
@@ -10611,7 +10607,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>363</v>
       </c>
@@ -10625,7 +10621,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>34</v>
       </c>
@@ -10639,7 +10635,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -10659,7 +10655,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>22</v>
       </c>
@@ -10673,7 +10669,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>19</v>
       </c>
@@ -10687,7 +10683,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>20</v>
       </c>
@@ -10701,7 +10697,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>359</v>
       </c>
@@ -10715,7 +10711,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>437</v>
       </c>
@@ -10735,7 +10731,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>440</v>
       </c>
@@ -10755,7 +10751,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>20</v>
       </c>
@@ -10769,7 +10765,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>54</v>
       </c>
@@ -10789,7 +10785,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>20</v>
       </c>
@@ -10803,7 +10799,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>359</v>
       </c>
@@ -10817,7 +10813,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -10854,17 +10850,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10884,7 +10880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>445</v>
       </c>
@@ -10904,7 +10900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -10918,7 +10914,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>359</v>
       </c>
@@ -10932,7 +10928,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>363</v>
       </c>
@@ -10946,7 +10942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -10966,7 +10962,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>22</v>
       </c>
@@ -10980,7 +10976,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -10997,7 +10993,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>453</v>
       </c>
@@ -11008,7 +11004,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>328</v>
       </c>
@@ -11028,7 +11024,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -11042,7 +11038,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>359</v>
       </c>
@@ -11056,7 +11052,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>363</v>
       </c>
@@ -11070,7 +11066,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -11084,12 +11080,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>327</v>
       </c>
@@ -11106,7 +11102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>20</v>
       </c>
@@ -11120,7 +11116,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>359</v>
       </c>
@@ -11134,7 +11130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>363</v>
       </c>
@@ -11148,7 +11144,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>343</v>
       </c>
@@ -11168,7 +11164,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -11182,7 +11178,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>359</v>
       </c>
@@ -11196,7 +11192,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>363</v>
       </c>
@@ -11210,7 +11206,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>34</v>
       </c>
@@ -11224,7 +11220,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -11244,7 +11240,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -11261,7 +11257,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>433</v>
       </c>
@@ -11272,7 +11268,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>461</v>
       </c>
@@ -11292,7 +11288,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -11306,7 +11302,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -11320,7 +11316,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>406</v>
       </c>
@@ -11340,7 +11336,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>20</v>
       </c>
@@ -11354,7 +11350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>359</v>
       </c>
@@ -11368,7 +11364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>363</v>
       </c>
@@ -11382,7 +11378,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>34</v>
       </c>
@@ -11396,7 +11392,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -11416,7 +11412,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>19</v>
       </c>
@@ -11430,7 +11426,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -11444,7 +11440,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>359</v>
       </c>
@@ -11458,7 +11454,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>363</v>
       </c>
@@ -11472,7 +11468,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>466</v>
       </c>
@@ -11492,7 +11488,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>19</v>
       </c>
@@ -11506,7 +11502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>20</v>
       </c>
@@ -11520,7 +11516,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>468</v>
       </c>
@@ -11537,7 +11533,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>470</v>
       </c>
@@ -11548,7 +11544,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>89</v>
       </c>
@@ -11568,7 +11564,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>417</v>
       </c>
@@ -11588,7 +11584,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>52</v>
       </c>
@@ -11608,7 +11604,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>22</v>
       </c>
@@ -11622,7 +11618,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>19</v>
       </c>
@@ -11636,7 +11632,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>425</v>
       </c>
@@ -11656,7 +11652,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>20</v>
       </c>
@@ -11670,7 +11666,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>359</v>
       </c>
@@ -11684,7 +11680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>363</v>
       </c>
@@ -11698,7 +11694,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -11718,7 +11714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>19</v>
       </c>
@@ -11732,7 +11728,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>20</v>
       </c>
@@ -11746,7 +11742,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>359</v>
       </c>
@@ -11760,7 +11756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>363</v>
       </c>
@@ -11774,7 +11770,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>34</v>
       </c>
@@ -11788,7 +11784,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>85</v>
       </c>
@@ -11808,7 +11804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>19</v>
       </c>
@@ -11822,7 +11818,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>20</v>
       </c>
@@ -11836,7 +11832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>359</v>
       </c>
@@ -11850,7 +11846,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>151</v>
       </c>
@@ -11870,7 +11866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>20</v>
       </c>
@@ -11884,7 +11880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>53</v>
       </c>
@@ -11904,7 +11900,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>22</v>
       </c>
@@ -11918,7 +11914,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>19</v>
       </c>
@@ -11932,7 +11928,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>20</v>
       </c>
@@ -11946,7 +11942,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>359</v>
       </c>
@@ -11960,7 +11956,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>78</v>
       </c>
@@ -11977,7 +11973,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>470</v>
       </c>
@@ -11988,7 +11984,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>154</v>
       </c>
@@ -12008,7 +12004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>54</v>
       </c>
@@ -12028,7 +12024,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>20</v>
       </c>
@@ -12042,7 +12038,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>359</v>
       </c>
@@ -12056,7 +12052,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -12076,7 +12072,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>20</v>
       </c>
@@ -12090,7 +12086,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>359</v>
       </c>
@@ -12121,17 +12117,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12151,7 +12147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>445</v>
       </c>
@@ -12171,7 +12167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -12185,7 +12181,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -12205,7 +12201,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>22</v>
       </c>
@@ -12219,7 +12215,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>19</v>
       </c>
@@ -12233,7 +12229,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -12247,7 +12243,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>359</v>
       </c>
@@ -12261,7 +12257,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>363</v>
       </c>
@@ -12275,7 +12271,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>328</v>
       </c>
@@ -12295,7 +12291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -12309,7 +12305,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>359</v>
       </c>
@@ -12323,7 +12319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>363</v>
       </c>
@@ -12337,7 +12333,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>34</v>
       </c>
@@ -12351,12 +12347,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>343</v>
       </c>
@@ -12376,7 +12372,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -12396,7 +12392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -12410,7 +12406,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -12424,7 +12420,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>359</v>
       </c>
@@ -12438,7 +12434,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -12458,7 +12454,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>19</v>
       </c>
@@ -12472,7 +12468,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>461</v>
       </c>
@@ -12492,7 +12488,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>406</v>
       </c>
@@ -12512,7 +12508,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>20</v>
       </c>
@@ -12526,7 +12522,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>359</v>
       </c>
@@ -12540,7 +12536,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>363</v>
       </c>
@@ -12554,7 +12550,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>34</v>
       </c>
@@ -12568,7 +12564,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -12588,7 +12584,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>19</v>
       </c>
@@ -12602,7 +12598,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>497</v>
       </c>
@@ -12622,7 +12618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>19</v>
       </c>
@@ -12636,7 +12632,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>499</v>
       </c>
@@ -12656,7 +12652,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>20</v>
       </c>
@@ -12670,7 +12666,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>359</v>
       </c>
@@ -12684,7 +12680,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>363</v>
       </c>
@@ -12698,7 +12694,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>34</v>
       </c>
@@ -12712,7 +12708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -12732,7 +12728,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -12752,7 +12748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>20</v>
       </c>
@@ -12766,7 +12762,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>359</v>
       </c>
@@ -12780,7 +12776,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>363</v>
       </c>
@@ -12794,7 +12790,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>34</v>
       </c>
@@ -12808,7 +12804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -12828,7 +12824,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>22</v>
       </c>
@@ -12842,7 +12838,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>19</v>
       </c>
@@ -12856,7 +12852,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -12870,7 +12866,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>359</v>
       </c>
@@ -12884,7 +12880,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>363</v>
       </c>
@@ -12898,7 +12894,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>505</v>
       </c>
@@ -12918,7 +12914,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -12932,7 +12928,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>359</v>
       </c>
@@ -12946,7 +12942,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>363</v>
       </c>
@@ -12960,7 +12956,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>34</v>
       </c>
@@ -12974,7 +12970,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>151</v>
       </c>
@@ -12994,7 +12990,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -13008,7 +13004,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>359</v>
       </c>
@@ -13022,7 +13018,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>363</v>
       </c>
@@ -13036,7 +13032,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -13056,7 +13052,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>19</v>
       </c>
@@ -13070,7 +13066,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -13084,7 +13080,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>359</v>
       </c>
@@ -13098,7 +13094,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>363</v>
       </c>
@@ -13112,7 +13108,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>34</v>
       </c>
@@ -13126,7 +13122,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -13146,7 +13142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>19</v>
       </c>
@@ -13160,7 +13156,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -13174,7 +13170,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>359</v>
       </c>
@@ -13188,7 +13184,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>363</v>
       </c>
@@ -13202,7 +13198,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>34</v>
       </c>
@@ -13216,7 +13212,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>53</v>
       </c>
@@ -13236,7 +13232,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>22</v>
       </c>
@@ -13250,7 +13246,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>19</v>
       </c>
@@ -13264,7 +13260,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>20</v>
       </c>
@@ -13278,7 +13274,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>359</v>
       </c>
@@ -13292,7 +13288,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>363</v>
       </c>
@@ -13306,7 +13302,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>34</v>
       </c>
@@ -13320,7 +13316,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>78</v>
       </c>
@@ -13337,7 +13333,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
         <v>430</v>
       </c>
@@ -13348,7 +13344,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>154</v>
       </c>
@@ -13368,7 +13364,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>20</v>
       </c>
@@ -13382,7 +13378,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>54</v>
       </c>
@@ -13402,7 +13398,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>20</v>
       </c>
@@ -13416,7 +13412,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>359</v>
       </c>
@@ -13430,7 +13426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>363</v>
       </c>
@@ -13444,7 +13440,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>98</v>
       </c>
@@ -13464,7 +13460,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>20</v>
       </c>
@@ -13478,7 +13474,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>359</v>
       </c>
@@ -13492,7 +13488,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>363</v>
       </c>
@@ -13506,7 +13502,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>119</v>
       </c>
@@ -13526,7 +13522,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>91</v>
       </c>
@@ -13540,7 +13536,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>91</v>
       </c>
@@ -13554,7 +13550,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>363</v>
       </c>
@@ -13586,17 +13582,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13616,7 +13612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -13636,7 +13632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -13650,7 +13646,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -13670,7 +13666,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>22</v>
       </c>
@@ -13684,7 +13680,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>19</v>
       </c>
@@ -13698,7 +13694,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -13712,7 +13708,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>359</v>
       </c>
@@ -13726,7 +13722,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -13743,7 +13739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>409</v>
       </c>
@@ -13754,7 +13750,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>327</v>
       </c>
@@ -13774,7 +13770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -13788,7 +13784,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>359</v>
       </c>
@@ -13802,7 +13798,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -13816,7 +13812,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -13830,7 +13826,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>328</v>
       </c>
@@ -13850,7 +13846,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -13864,7 +13860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>359</v>
       </c>
@@ -13878,7 +13874,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>524</v>
       </c>
@@ -13898,7 +13894,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -13912,7 +13908,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>359</v>
       </c>
@@ -13926,7 +13922,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>363</v>
       </c>
@@ -13940,7 +13936,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -13960,7 +13956,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>19</v>
       </c>
@@ -13974,7 +13970,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>20</v>
       </c>
@@ -13988,7 +13984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>359</v>
       </c>
@@ -14002,7 +13998,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -14022,7 +14018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>19</v>
       </c>
@@ -14036,7 +14032,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>20</v>
       </c>
@@ -14050,7 +14046,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>359</v>
       </c>
@@ -14064,7 +14060,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>363</v>
       </c>
@@ -14078,7 +14074,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>34</v>
       </c>
@@ -14092,7 +14088,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -14109,7 +14105,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>490</v>
       </c>
@@ -14120,7 +14116,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>406</v>
       </c>
@@ -14140,7 +14136,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>20</v>
       </c>
@@ -14154,7 +14150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>359</v>
       </c>
@@ -14168,7 +14164,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>363</v>
       </c>
@@ -14182,7 +14178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>34</v>
       </c>
@@ -14196,7 +14192,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -14216,7 +14212,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -14236,7 +14232,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>22</v>
       </c>
@@ -14250,7 +14246,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>92</v>
       </c>
@@ -14270,7 +14266,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>20</v>
       </c>
@@ -14284,7 +14280,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>359</v>
       </c>
@@ -14298,7 +14294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>363</v>
       </c>
@@ -14312,7 +14308,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>34</v>
       </c>
@@ -14326,7 +14322,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>52</v>
       </c>
@@ -14346,7 +14342,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>22</v>
       </c>
@@ -14360,7 +14356,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>19</v>
       </c>
@@ -14374,7 +14370,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -14388,7 +14384,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>359</v>
       </c>
@@ -14402,7 +14398,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>363</v>
       </c>
@@ -14416,7 +14412,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>34</v>
       </c>
@@ -14430,7 +14426,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>505</v>
       </c>
@@ -14450,7 +14446,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -14464,7 +14460,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>359</v>
       </c>
@@ -14478,7 +14474,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>363</v>
       </c>
@@ -14492,7 +14488,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>34</v>
       </c>
@@ -14506,7 +14502,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -14526,7 +14522,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>19</v>
       </c>
@@ -14540,7 +14536,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>20</v>
       </c>
@@ -14554,7 +14550,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>359</v>
       </c>
@@ -14568,7 +14564,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>363</v>
       </c>
@@ -14582,7 +14578,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>34</v>
       </c>
@@ -14596,7 +14592,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -14616,7 +14612,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>19</v>
       </c>
@@ -14630,7 +14626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>20</v>
       </c>
@@ -14644,7 +14640,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>359</v>
       </c>
@@ -14658,7 +14654,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>363</v>
       </c>
@@ -14672,7 +14668,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>349</v>
       </c>
@@ -14692,7 +14688,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>19</v>
       </c>
@@ -14706,7 +14702,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>20</v>
       </c>
@@ -14720,7 +14716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>53</v>
       </c>
@@ -14740,7 +14736,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>22</v>
       </c>
@@ -14754,7 +14750,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>19</v>
       </c>
@@ -14768,7 +14764,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>20</v>
       </c>
@@ -14782,7 +14778,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>359</v>
       </c>
@@ -14796,7 +14792,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>78</v>
       </c>
@@ -14816,7 +14812,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>18</v>
       </c>
@@ -14830,7 +14826,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>540</v>
       </c>
@@ -14850,7 +14846,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>20</v>
       </c>
@@ -14864,7 +14860,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>359</v>
       </c>
@@ -14878,7 +14874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>363</v>
       </c>
@@ -14892,7 +14888,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>34</v>
       </c>
@@ -14906,7 +14902,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>98</v>
       </c>
@@ -14926,7 +14922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>20</v>
       </c>
@@ -14940,7 +14936,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>119</v>
       </c>
@@ -14960,7 +14956,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>91</v>
       </c>
@@ -14974,7 +14970,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>91</v>
       </c>
@@ -14988,7 +14984,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>363</v>
       </c>
@@ -15002,7 +14998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>78</v>
       </c>
@@ -15019,7 +15015,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
         <v>528</v>
       </c>
@@ -15048,17 +15044,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15078,7 +15074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -15098,7 +15094,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -15112,7 +15108,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -15126,7 +15122,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -15140,7 +15136,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>359</v>
       </c>
@@ -15154,7 +15150,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>363</v>
       </c>
@@ -15168,7 +15164,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>327</v>
       </c>
@@ -15188,7 +15184,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>20</v>
       </c>
@@ -15202,7 +15198,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>359</v>
       </c>
@@ -15216,7 +15212,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>363</v>
       </c>
@@ -15230,7 +15226,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>34</v>
       </c>
@@ -15244,7 +15240,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>328</v>
       </c>
@@ -15264,7 +15260,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -15278,7 +15274,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>382</v>
       </c>
@@ -15289,7 +15285,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>19</v>
       </c>
@@ -15303,12 +15299,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -15325,7 +15321,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>531</v>
       </c>
@@ -15336,7 +15332,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -15356,7 +15352,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -15370,7 +15366,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -15384,7 +15380,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>359</v>
       </c>
@@ -15398,7 +15394,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>363</v>
       </c>
@@ -15412,7 +15408,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -15432,7 +15428,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>406</v>
       </c>
@@ -15452,7 +15448,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>20</v>
       </c>
@@ -15466,7 +15462,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>359</v>
       </c>
@@ -15480,7 +15476,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>363</v>
       </c>
@@ -15494,7 +15490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>34</v>
       </c>
@@ -15508,7 +15504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -15528,7 +15524,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>19</v>
       </c>
@@ -15542,7 +15538,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>20</v>
       </c>
@@ -15556,7 +15552,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>466</v>
       </c>
@@ -15576,7 +15572,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -15596,7 +15592,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>22</v>
       </c>
@@ -15610,7 +15606,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -15630,7 +15626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -15644,7 +15640,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>359</v>
       </c>
@@ -15658,7 +15654,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>363</v>
       </c>
@@ -15672,7 +15668,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>34</v>
       </c>
@@ -15686,7 +15682,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -15706,7 +15702,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>22</v>
       </c>
@@ -15720,7 +15716,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>19</v>
       </c>
@@ -15734,7 +15730,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>20</v>
       </c>
@@ -15748,7 +15744,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>359</v>
       </c>
@@ -15762,7 +15758,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>363</v>
       </c>
@@ -15776,7 +15772,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>34</v>
       </c>
@@ -15790,7 +15786,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>505</v>
       </c>
@@ -15810,7 +15806,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>20</v>
       </c>
@@ -15824,7 +15820,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>359</v>
       </c>
@@ -15838,7 +15834,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>151</v>
       </c>
@@ -15858,7 +15854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -15872,7 +15868,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>359</v>
       </c>
@@ -15886,7 +15882,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>363</v>
       </c>
@@ -15900,7 +15896,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>34</v>
       </c>
@@ -15914,7 +15910,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>84</v>
       </c>
@@ -15934,7 +15930,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -15954,7 +15950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>19</v>
       </c>
@@ -15968,7 +15964,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>20</v>
       </c>
@@ -15982,7 +15978,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>359</v>
       </c>
@@ -15996,7 +15992,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>363</v>
       </c>
@@ -16010,7 +16006,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>34</v>
       </c>
@@ -16024,7 +16020,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>53</v>
       </c>
@@ -16044,7 +16040,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -16061,7 +16057,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>519</v>
       </c>
@@ -16072,7 +16068,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>154</v>
       </c>
@@ -16092,7 +16088,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>556</v>
       </c>
@@ -16112,7 +16108,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>20</v>
       </c>
@@ -16126,7 +16122,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>359</v>
       </c>
@@ -16140,7 +16136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>363</v>
       </c>
@@ -16154,7 +16150,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>34</v>
       </c>
@@ -16168,7 +16164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -16188,7 +16184,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>20</v>
       </c>
@@ -16202,7 +16198,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>359</v>
       </c>
@@ -16216,7 +16212,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>363</v>
       </c>
@@ -16247,17 +16243,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16277,7 +16273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -16297,7 +16293,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -16311,7 +16307,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -16325,7 +16321,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -16339,7 +16335,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -16356,7 +16352,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>400</v>
       </c>
@@ -16367,7 +16363,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>327</v>
       </c>
@@ -16387,7 +16383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -16401,7 +16397,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>359</v>
       </c>
@@ -16415,7 +16411,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>363</v>
       </c>
@@ -16429,7 +16425,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>328</v>
       </c>
@@ -16449,7 +16445,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -16463,7 +16459,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>535</v>
       </c>
@@ -16474,12 +16470,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -16499,7 +16495,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -16513,7 +16509,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -16527,7 +16523,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -16547,7 +16543,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -16561,7 +16557,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -16575,7 +16571,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>359</v>
       </c>
@@ -16589,7 +16585,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -16606,7 +16602,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>575</v>
       </c>
@@ -16617,7 +16613,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>406</v>
       </c>
@@ -16637,7 +16633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>20</v>
       </c>
@@ -16651,7 +16647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>359</v>
       </c>
@@ -16665,7 +16661,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>88</v>
       </c>
@@ -16685,7 +16681,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -16699,7 +16695,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -16713,7 +16709,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>359</v>
       </c>
@@ -16727,7 +16723,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>468</v>
       </c>
@@ -16744,7 +16740,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -16764,7 +16760,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -16784,7 +16780,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>20</v>
       </c>
@@ -16798,7 +16794,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>359</v>
       </c>
@@ -16812,7 +16808,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>363</v>
       </c>
@@ -16826,7 +16822,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -16846,7 +16842,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>22</v>
       </c>
@@ -16860,7 +16856,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>19</v>
       </c>
@@ -16874,7 +16870,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>505</v>
       </c>
@@ -16894,7 +16890,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>20</v>
       </c>
@@ -16908,7 +16904,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>359</v>
       </c>
@@ -16922,7 +16918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>363</v>
       </c>
@@ -16936,7 +16932,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>34</v>
       </c>
@@ -16950,7 +16946,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>339</v>
       </c>
@@ -16970,7 +16966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>18</v>
       </c>
@@ -16984,7 +16980,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>18</v>
       </c>
@@ -16998,7 +16994,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -17018,7 +17014,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>19</v>
       </c>
@@ -17032,7 +17028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -17046,7 +17042,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>359</v>
       </c>
@@ -17060,7 +17056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>363</v>
       </c>
@@ -17074,7 +17070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>34</v>
       </c>
@@ -17088,7 +17084,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -17108,7 +17104,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>22</v>
       </c>
@@ -17122,7 +17118,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>19</v>
       </c>
@@ -17136,7 +17132,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>20</v>
       </c>
@@ -17150,7 +17146,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>359</v>
       </c>
@@ -17164,7 +17160,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>363</v>
       </c>
@@ -17178,7 +17174,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>34</v>
       </c>
@@ -17192,7 +17188,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -17209,7 +17205,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>424</v>
       </c>
@@ -17220,7 +17216,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>587</v>
       </c>
@@ -17240,7 +17236,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>20</v>
       </c>
@@ -17254,7 +17250,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>359</v>
       </c>
@@ -17268,7 +17264,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>363</v>
       </c>
@@ -17282,7 +17278,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>154</v>
       </c>
@@ -17302,7 +17298,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>20</v>
       </c>
@@ -17316,7 +17312,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>119</v>
       </c>
@@ -17336,7 +17332,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>91</v>
       </c>
@@ -17350,7 +17346,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>91</v>
       </c>
@@ -17381,17 +17377,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17411,7 +17407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -17431,7 +17427,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -17445,7 +17441,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -17459,7 +17455,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -17473,7 +17469,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>359</v>
       </c>
@@ -17487,7 +17483,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>363</v>
       </c>
@@ -17501,7 +17497,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -17518,7 +17514,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>589</v>
       </c>
@@ -17529,7 +17525,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>327</v>
       </c>
@@ -17549,7 +17545,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -17563,7 +17559,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>359</v>
       </c>
@@ -17577,7 +17573,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>363</v>
       </c>
@@ -17591,7 +17587,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>328</v>
       </c>
@@ -17611,7 +17607,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>363</v>
       </c>
@@ -17625,7 +17621,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>599</v>
       </c>
@@ -17636,7 +17632,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>363</v>
       </c>
@@ -17650,7 +17646,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>34</v>
       </c>
@@ -17664,7 +17660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -17684,7 +17680,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -17698,7 +17694,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -17712,7 +17708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>359</v>
       </c>
@@ -17726,7 +17722,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>363</v>
       </c>
@@ -17740,7 +17736,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -17760,7 +17756,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>19</v>
       </c>
@@ -17774,7 +17770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>20</v>
       </c>
@@ -17788,7 +17784,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>359</v>
       </c>
@@ -17802,7 +17798,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -17819,7 +17815,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -17839,7 +17835,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -17853,7 +17849,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>329</v>
       </c>
@@ -17873,7 +17869,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>20</v>
       </c>
@@ -17887,7 +17883,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>359</v>
       </c>
@@ -17901,7 +17897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -17921,7 +17917,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>330</v>
       </c>
@@ -17941,7 +17937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -17955,7 +17951,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>359</v>
       </c>
@@ -17969,7 +17965,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>363</v>
       </c>
@@ -17983,7 +17979,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>34</v>
       </c>
@@ -17997,7 +17993,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -18017,7 +18013,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>22</v>
       </c>
@@ -18031,7 +18027,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>19</v>
       </c>
@@ -18045,7 +18041,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>20</v>
       </c>
@@ -18059,7 +18055,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>359</v>
       </c>
@@ -18073,7 +18069,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>151</v>
       </c>
@@ -18093,7 +18089,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>20</v>
       </c>
@@ -18107,7 +18103,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>359</v>
       </c>
@@ -18121,7 +18117,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>363</v>
       </c>
@@ -18135,7 +18131,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>34</v>
       </c>
@@ -18149,7 +18145,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -18169,7 +18165,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -18183,7 +18179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>359</v>
       </c>
@@ -18197,7 +18193,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -18217,7 +18213,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>22</v>
       </c>
@@ -18231,7 +18227,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>19</v>
       </c>
@@ -18245,7 +18241,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -18259,7 +18255,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>359</v>
       </c>
@@ -18273,7 +18269,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -18290,7 +18286,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>422</v>
       </c>
@@ -18301,7 +18297,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>331</v>
       </c>
@@ -18321,7 +18317,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>119</v>
       </c>
@@ -18341,7 +18337,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>91</v>
       </c>
@@ -18355,7 +18351,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>91</v>
       </c>
@@ -18369,7 +18365,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>363</v>
       </c>
@@ -18400,17 +18396,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -18430,7 +18426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -18450,7 +18446,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -18464,7 +18460,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -18478,7 +18474,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -18495,7 +18491,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>327</v>
       </c>
@@ -18515,7 +18511,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -18529,7 +18525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>359</v>
       </c>
@@ -18543,7 +18539,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>363</v>
       </c>
@@ -18557,7 +18553,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>34</v>
       </c>
@@ -18571,7 +18567,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>328</v>
       </c>
@@ -18591,7 +18587,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -18605,7 +18601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>359</v>
       </c>
@@ -18619,12 +18615,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -18644,7 +18640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>363</v>
       </c>
@@ -18658,7 +18654,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>359</v>
       </c>
@@ -18672,7 +18668,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>363</v>
       </c>
@@ -18686,7 +18682,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>34</v>
       </c>
@@ -18700,7 +18696,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -18720,7 +18716,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -18740,7 +18736,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -18754,7 +18750,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>20</v>
       </c>
@@ -18768,7 +18764,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>359</v>
       </c>
@@ -18782,7 +18778,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>363</v>
       </c>
@@ -18796,7 +18792,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -18813,7 +18809,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>554</v>
       </c>
@@ -18824,7 +18820,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>88</v>
       </c>
@@ -18844,7 +18840,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>20</v>
       </c>
@@ -18858,7 +18854,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>359</v>
       </c>
@@ -18872,7 +18868,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>363</v>
       </c>
@@ -18886,7 +18882,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>330</v>
       </c>
@@ -18906,7 +18902,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>20</v>
       </c>
@@ -18920,7 +18916,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>359</v>
       </c>
@@ -18934,7 +18930,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>363</v>
       </c>
@@ -18948,7 +18944,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -18968,7 +18964,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>22</v>
       </c>
@@ -18982,7 +18978,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -19002,7 +18998,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -19016,7 +19012,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>339</v>
       </c>
@@ -19036,7 +19032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>359</v>
       </c>
@@ -19050,7 +19046,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>363</v>
       </c>
@@ -19064,7 +19060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>34</v>
       </c>
@@ -19078,7 +19074,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>151</v>
       </c>
@@ -19098,7 +19094,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -19112,7 +19108,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>359</v>
       </c>
@@ -19126,7 +19122,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -19146,7 +19142,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>22</v>
       </c>
@@ -19160,7 +19156,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>19</v>
       </c>
@@ -19174,7 +19170,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>20</v>
       </c>
@@ -19188,7 +19184,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>359</v>
       </c>
@@ -19202,7 +19198,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -19219,7 +19215,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>528</v>
       </c>
@@ -19230,7 +19226,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>90</v>
       </c>
@@ -19250,7 +19246,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>359</v>
       </c>
@@ -19264,7 +19260,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>363</v>
       </c>
@@ -19278,7 +19274,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>34</v>
       </c>
@@ -19292,7 +19288,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>126</v>
       </c>
@@ -19312,7 +19308,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>20</v>
       </c>
@@ -19326,7 +19322,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>359</v>
       </c>
@@ -19340,7 +19336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>363</v>
       </c>
@@ -19354,7 +19350,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>154</v>
       </c>
@@ -19374,7 +19370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>20</v>
       </c>
@@ -19388,7 +19384,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>331</v>
       </c>
@@ -19408,7 +19404,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -19422,7 +19418,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>359</v>
       </c>
@@ -19436,7 +19432,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -19456,7 +19452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>20</v>
       </c>
@@ -19470,7 +19466,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>359</v>
       </c>
@@ -19484,7 +19480,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>119</v>
       </c>

--- a/Tennis/ATP Tour/Andy Roddick.xlsx
+++ b/Tennis/ATP Tour/Andy Roddick.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4074" documentId="13_ncr:1_{0A1EECD3-9448-4D45-9666-76DA02865CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A2EACA0-E9F5-4A9B-8858-10564F9E2F16}"/>
+  <xr:revisionPtr revIDLastSave="4075" documentId="13_ncr:1_{0A1EECD3-9448-4D45-9666-76DA02865CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E61B0945-2239-4558-B515-C83F38BCEF73}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="5" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="37" r:id="rId1"/>
@@ -5341,17 +5341,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>350</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>22</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>151</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>359</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>361</v>
       </c>
@@ -5547,12 +5547,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>362</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>359</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>363</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>34</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>364</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>359</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>363</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>365</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>20</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>359</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>363</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>34</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>366</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>20</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>359</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>363</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>34</v>
       </c>
@@ -5856,17 +5856,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>359</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>363</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>359</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>363</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>327</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>393</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>19</v>
       </c>
@@ -6111,12 +6111,12 @@
         <v>695</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>328</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>359</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>363</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>651</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>19</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>20</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>359</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>363</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>359</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>154</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>20</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>359</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>22</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>19</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>340</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>20</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>359</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>363</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>22</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>359</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>363</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>34</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>151</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>20</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>359</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>363</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>34</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>20</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>359</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>363</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>53</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>22</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>19</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>117</v>
       </c>
@@ -6898,17 +6898,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>359</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>363</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>359</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>327</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>359</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -7156,12 +7156,12 @@
         <v>746</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>328</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>359</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>19</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>359</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>363</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>34</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>19</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>359</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>363</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>34</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>89</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>22</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>19</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>20</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>22</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>19</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>20</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>341</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>359</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>363</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>151</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>20</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>22</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>20</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>359</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>117</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>19</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>54</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>20</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>359</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>363</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>20</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>359</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>119</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>91</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>91</v>
       </c>
@@ -7906,17 +7906,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>359</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>363</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>328</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>359</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>363</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -8150,12 +8150,12 @@
         <v>785</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>570</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>19</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>20</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>154</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>359</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>363</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>22</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>19</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>342</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>359</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>363</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>22</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>19</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>20</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>359</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>90</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>117</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>19</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>20</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>359</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>359</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>98</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>20</v>
       </c>
@@ -8760,17 +8760,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>327</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>359</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>328</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>343</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>359</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>19</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>19</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>340</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>359</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>363</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>34</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>22</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>341</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>359</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>363</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>34</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>349</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>342</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>22</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>19</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>20</v>
       </c>
@@ -9402,18 +9402,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>0.61904761904761907</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>0.63043478260869568</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>0.6071428571428571</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>0.73611111111111116</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>0.7567567567567568</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -9560,7 +9560,7 @@
       </c>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -9582,7 +9582,7 @@
       </c>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -9604,7 +9604,7 @@
       </c>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -9626,7 +9626,7 @@
       </c>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -9648,7 +9648,7 @@
       </c>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>0.61363636363636365</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>0.52941176470588236</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>0.43478260869565216</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>0.66185897435897434</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>0.66185897435897434</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
     </row>
   </sheetData>
@@ -9790,17 +9790,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>387</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>359</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>363</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>328</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>19</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>327</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>343</v>
       </c>
@@ -10001,12 +10001,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>19</v>
       </c>
@@ -10037,7 +10037,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>359</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>402</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>405</v>
       </c>
@@ -10133,7 +10133,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>20</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>359</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>363</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>34</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>406</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>359</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>363</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>34</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>22</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>417</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>359</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>363</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -10415,7 +10415,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>22</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>19</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>425</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>19</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>20</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>359</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>85</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>151</v>
       </c>
@@ -10565,7 +10565,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>19</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -10593,7 +10593,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>359</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>363</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>34</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>22</v>
       </c>
@@ -10669,7 +10669,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>19</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>20</v>
       </c>
@@ -10697,7 +10697,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>359</v>
       </c>
@@ -10711,7 +10711,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>437</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>440</v>
       </c>
@@ -10751,7 +10751,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>20</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>54</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>20</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>359</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -10850,17 +10850,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>445</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -10914,7 +10914,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>359</v>
       </c>
@@ -10928,7 +10928,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>363</v>
       </c>
@@ -10942,7 +10942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>22</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>453</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>328</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -11038,7 +11038,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>359</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>363</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -11080,12 +11080,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>327</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>20</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>359</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>363</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>343</v>
       </c>
@@ -11164,7 +11164,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>359</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>363</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>34</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>433</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>461</v>
       </c>
@@ -11288,7 +11288,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>406</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>20</v>
       </c>
@@ -11350,7 +11350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>359</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>363</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>34</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -11412,7 +11412,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>19</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -11440,7 +11440,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>359</v>
       </c>
@@ -11454,7 +11454,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>363</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>466</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>19</v>
       </c>
@@ -11502,7 +11502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>20</v>
       </c>
@@ -11516,7 +11516,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>468</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>470</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>89</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>417</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>52</v>
       </c>
@@ -11604,7 +11604,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>22</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>19</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>425</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>20</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>359</v>
       </c>
@@ -11680,7 +11680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>363</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>19</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>20</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>359</v>
       </c>
@@ -11756,7 +11756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>363</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>34</v>
       </c>
@@ -11784,7 +11784,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>85</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>19</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>20</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>359</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>151</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>20</v>
       </c>
@@ -11880,7 +11880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>53</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>22</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>19</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>20</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>359</v>
       </c>
@@ -11956,7 +11956,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>78</v>
       </c>
@@ -11973,7 +11973,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>470</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>154</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>54</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>20</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>359</v>
       </c>
@@ -12052,7 +12052,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -12072,7 +12072,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>20</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>359</v>
       </c>
@@ -12117,17 +12117,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>445</v>
       </c>
@@ -12167,7 +12167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -12201,7 +12201,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>22</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>19</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>359</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>363</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>328</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>359</v>
       </c>
@@ -12319,7 +12319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>363</v>
       </c>
@@ -12333,7 +12333,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>34</v>
       </c>
@@ -12347,12 +12347,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>343</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -12420,7 +12420,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>359</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -12454,7 +12454,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>19</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>461</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>406</v>
       </c>
@@ -12508,7 +12508,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>20</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>359</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>363</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>34</v>
       </c>
@@ -12564,7 +12564,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -12584,7 +12584,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>19</v>
       </c>
@@ -12598,7 +12598,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>497</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>19</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>499</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>20</v>
       </c>
@@ -12666,7 +12666,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>359</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>363</v>
       </c>
@@ -12694,7 +12694,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>34</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -12748,7 +12748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>20</v>
       </c>
@@ -12762,7 +12762,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>359</v>
       </c>
@@ -12776,7 +12776,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>363</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>34</v>
       </c>
@@ -12804,7 +12804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>22</v>
       </c>
@@ -12838,7 +12838,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>19</v>
       </c>
@@ -12852,7 +12852,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>359</v>
       </c>
@@ -12880,7 +12880,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>363</v>
       </c>
@@ -12894,7 +12894,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>505</v>
       </c>
@@ -12914,7 +12914,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -12928,7 +12928,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>359</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>363</v>
       </c>
@@ -12956,7 +12956,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>34</v>
       </c>
@@ -12970,7 +12970,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>151</v>
       </c>
@@ -12990,7 +12990,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -13004,7 +13004,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>359</v>
       </c>
@@ -13018,7 +13018,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>363</v>
       </c>
@@ -13032,7 +13032,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>19</v>
       </c>
@@ -13066,7 +13066,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -13080,7 +13080,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>359</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>363</v>
       </c>
@@ -13108,7 +13108,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>34</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -13142,7 +13142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>19</v>
       </c>
@@ -13156,7 +13156,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -13170,7 +13170,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>359</v>
       </c>
@@ -13184,7 +13184,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>363</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>34</v>
       </c>
@@ -13212,7 +13212,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>53</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>22</v>
       </c>
@@ -13246,7 +13246,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>19</v>
       </c>
@@ -13260,7 +13260,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>20</v>
       </c>
@@ -13274,7 +13274,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>359</v>
       </c>
@@ -13288,7 +13288,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>363</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>34</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>78</v>
       </c>
@@ -13333,7 +13333,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
         <v>430</v>
       </c>
@@ -13344,7 +13344,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>154</v>
       </c>
@@ -13364,7 +13364,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>20</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>54</v>
       </c>
@@ -13398,7 +13398,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>20</v>
       </c>
@@ -13412,7 +13412,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>359</v>
       </c>
@@ -13426,7 +13426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>363</v>
       </c>
@@ -13440,7 +13440,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>98</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>20</v>
       </c>
@@ -13474,7 +13474,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>359</v>
       </c>
@@ -13488,7 +13488,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>363</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>119</v>
       </c>
@@ -13522,7 +13522,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
         <v>91</v>
       </c>
@@ -13536,7 +13536,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
         <v>91</v>
       </c>
@@ -13550,7 +13550,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
         <v>363</v>
       </c>
@@ -13582,17 +13582,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13612,7 +13612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -13632,7 +13632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>22</v>
       </c>
@@ -13680,7 +13680,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>19</v>
       </c>
@@ -13694,7 +13694,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -13708,7 +13708,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>359</v>
       </c>
@@ -13722,7 +13722,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>409</v>
       </c>
@@ -13750,7 +13750,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>327</v>
       </c>
@@ -13770,7 +13770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -13784,7 +13784,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>359</v>
       </c>
@@ -13798,7 +13798,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -13812,7 +13812,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -13826,7 +13826,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>328</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -13860,7 +13860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>359</v>
       </c>
@@ -13874,7 +13874,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>524</v>
       </c>
@@ -13894,7 +13894,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -13908,7 +13908,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>359</v>
       </c>
@@ -13922,7 +13922,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>363</v>
       </c>
@@ -13936,7 +13936,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -13956,7 +13956,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>19</v>
       </c>
@@ -13970,7 +13970,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>20</v>
       </c>
@@ -13984,7 +13984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>359</v>
       </c>
@@ -13998,7 +13998,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -14018,7 +14018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>19</v>
       </c>
@@ -14032,7 +14032,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>20</v>
       </c>
@@ -14046,7 +14046,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>359</v>
       </c>
@@ -14060,7 +14060,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>363</v>
       </c>
@@ -14074,7 +14074,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>34</v>
       </c>
@@ -14088,7 +14088,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>490</v>
       </c>
@@ -14116,7 +14116,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>406</v>
       </c>
@@ -14136,7 +14136,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>20</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>359</v>
       </c>
@@ -14164,7 +14164,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>363</v>
       </c>
@@ -14178,7 +14178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>34</v>
       </c>
@@ -14192,7 +14192,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -14212,7 +14212,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -14232,7 +14232,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>22</v>
       </c>
@@ -14246,7 +14246,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>92</v>
       </c>
@@ -14266,7 +14266,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>20</v>
       </c>
@@ -14280,7 +14280,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>359</v>
       </c>
@@ -14294,7 +14294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>363</v>
       </c>
@@ -14308,7 +14308,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>34</v>
       </c>
@@ -14322,7 +14322,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>52</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>22</v>
       </c>
@@ -14356,7 +14356,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>19</v>
       </c>
@@ -14370,7 +14370,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>359</v>
       </c>
@@ -14398,7 +14398,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>363</v>
       </c>
@@ -14412,7 +14412,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>34</v>
       </c>
@@ -14426,7 +14426,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>505</v>
       </c>
@@ -14446,7 +14446,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -14460,7 +14460,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>359</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>363</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>34</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -14522,7 +14522,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>19</v>
       </c>
@@ -14536,7 +14536,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>20</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>359</v>
       </c>
@@ -14564,7 +14564,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>363</v>
       </c>
@@ -14578,7 +14578,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>34</v>
       </c>
@@ -14592,7 +14592,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -14612,7 +14612,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>19</v>
       </c>
@@ -14626,7 +14626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>20</v>
       </c>
@@ -14640,7 +14640,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>359</v>
       </c>
@@ -14654,7 +14654,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>363</v>
       </c>
@@ -14668,7 +14668,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>349</v>
       </c>
@@ -14688,7 +14688,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>19</v>
       </c>
@@ -14702,7 +14702,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>20</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>53</v>
       </c>
@@ -14736,7 +14736,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>22</v>
       </c>
@@ -14750,7 +14750,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>19</v>
       </c>
@@ -14764,7 +14764,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>20</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>359</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>78</v>
       </c>
@@ -14812,7 +14812,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>18</v>
       </c>
@@ -14826,7 +14826,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>540</v>
       </c>
@@ -14846,7 +14846,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>20</v>
       </c>
@@ -14860,7 +14860,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>359</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>363</v>
       </c>
@@ -14888,7 +14888,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>34</v>
       </c>
@@ -14902,7 +14902,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>98</v>
       </c>
@@ -14922,7 +14922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>20</v>
       </c>
@@ -14936,7 +14936,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>119</v>
       </c>
@@ -14956,7 +14956,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>91</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
         <v>91</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
         <v>363</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>78</v>
       </c>
@@ -15015,7 +15015,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D116" t="s">
         <v>528</v>
       </c>
@@ -15044,17 +15044,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -15094,7 +15094,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -15108,7 +15108,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -15136,7 +15136,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>359</v>
       </c>
@@ -15150,7 +15150,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>363</v>
       </c>
@@ -15164,7 +15164,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>327</v>
       </c>
@@ -15184,7 +15184,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>20</v>
       </c>
@@ -15198,7 +15198,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>359</v>
       </c>
@@ -15212,7 +15212,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>363</v>
       </c>
@@ -15226,7 +15226,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>34</v>
       </c>
@@ -15240,7 +15240,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>328</v>
       </c>
@@ -15260,7 +15260,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -15274,7 +15274,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>382</v>
       </c>
@@ -15285,7 +15285,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>19</v>
       </c>
@@ -15299,12 +15299,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -15321,7 +15321,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>531</v>
       </c>
@@ -15332,7 +15332,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -15352,7 +15352,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -15366,7 +15366,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -15380,7 +15380,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>359</v>
       </c>
@@ -15394,7 +15394,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>363</v>
       </c>
@@ -15408,7 +15408,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -15428,7 +15428,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>406</v>
       </c>
@@ -15448,7 +15448,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>20</v>
       </c>
@@ -15462,7 +15462,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>359</v>
       </c>
@@ -15476,7 +15476,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>363</v>
       </c>
@@ -15490,7 +15490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>34</v>
       </c>
@@ -15504,7 +15504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>19</v>
       </c>
@@ -15538,7 +15538,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>20</v>
       </c>
@@ -15552,7 +15552,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>466</v>
       </c>
@@ -15572,7 +15572,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -15592,7 +15592,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>22</v>
       </c>
@@ -15606,7 +15606,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -15626,7 +15626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -15640,7 +15640,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>359</v>
       </c>
@@ -15654,7 +15654,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>363</v>
       </c>
@@ -15668,7 +15668,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>34</v>
       </c>
@@ -15682,7 +15682,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -15702,7 +15702,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>22</v>
       </c>
@@ -15716,7 +15716,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>19</v>
       </c>
@@ -15730,7 +15730,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>20</v>
       </c>
@@ -15744,7 +15744,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>359</v>
       </c>
@@ -15758,7 +15758,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>363</v>
       </c>
@@ -15772,7 +15772,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>34</v>
       </c>
@@ -15786,7 +15786,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>505</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>20</v>
       </c>
@@ -15820,7 +15820,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>359</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>151</v>
       </c>
@@ -15854,7 +15854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -15868,7 +15868,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>359</v>
       </c>
@@ -15882,7 +15882,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>363</v>
       </c>
@@ -15896,7 +15896,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>34</v>
       </c>
@@ -15910,7 +15910,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>84</v>
       </c>
@@ -15930,7 +15930,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -15950,7 +15950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>19</v>
       </c>
@@ -15964,7 +15964,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>20</v>
       </c>
@@ -15978,7 +15978,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>359</v>
       </c>
@@ -15992,7 +15992,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>363</v>
       </c>
@@ -16006,7 +16006,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>34</v>
       </c>
@@ -16020,7 +16020,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>53</v>
       </c>
@@ -16040,7 +16040,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -16057,7 +16057,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>519</v>
       </c>
@@ -16068,7 +16068,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>154</v>
       </c>
@@ -16088,7 +16088,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>556</v>
       </c>
@@ -16108,7 +16108,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>20</v>
       </c>
@@ -16122,7 +16122,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>359</v>
       </c>
@@ -16136,7 +16136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>363</v>
       </c>
@@ -16150,7 +16150,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>34</v>
       </c>
@@ -16164,7 +16164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -16184,7 +16184,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>20</v>
       </c>
@@ -16198,7 +16198,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>359</v>
       </c>
@@ -16212,7 +16212,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>363</v>
       </c>
@@ -16243,17 +16243,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16273,7 +16273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -16293,7 +16293,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -16307,7 +16307,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -16321,7 +16321,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -16335,7 +16335,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -16352,7 +16352,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>400</v>
       </c>
@@ -16363,7 +16363,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>327</v>
       </c>
@@ -16383,7 +16383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -16397,7 +16397,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>359</v>
       </c>
@@ -16411,7 +16411,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>363</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>328</v>
       </c>
@@ -16445,7 +16445,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -16459,7 +16459,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>535</v>
       </c>
@@ -16470,12 +16470,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -16495,7 +16495,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -16509,7 +16509,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -16523,7 +16523,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -16543,7 +16543,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -16557,7 +16557,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -16571,7 +16571,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>359</v>
       </c>
@@ -16585,7 +16585,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -16602,7 +16602,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>575</v>
       </c>
@@ -16613,7 +16613,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>406</v>
       </c>
@@ -16633,7 +16633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>20</v>
       </c>
@@ -16647,7 +16647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>359</v>
       </c>
@@ -16661,7 +16661,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>88</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -16695,7 +16695,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -16709,7 +16709,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>359</v>
       </c>
@@ -16723,7 +16723,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>468</v>
       </c>
@@ -16740,7 +16740,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -16760,7 +16760,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -16780,7 +16780,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>20</v>
       </c>
@@ -16794,7 +16794,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>359</v>
       </c>
@@ -16808,7 +16808,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>363</v>
       </c>
@@ -16822,7 +16822,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -16842,7 +16842,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>22</v>
       </c>
@@ -16856,7 +16856,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>19</v>
       </c>
@@ -16870,7 +16870,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>505</v>
       </c>
@@ -16890,7 +16890,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>20</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>359</v>
       </c>
@@ -16918,7 +16918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>363</v>
       </c>
@@ -16932,7 +16932,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>34</v>
       </c>
@@ -16946,7 +16946,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>339</v>
       </c>
@@ -16966,7 +16966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>18</v>
       </c>
@@ -16980,7 +16980,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>18</v>
       </c>
@@ -16994,7 +16994,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -17014,7 +17014,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>19</v>
       </c>
@@ -17028,7 +17028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -17042,7 +17042,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>359</v>
       </c>
@@ -17056,7 +17056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>363</v>
       </c>
@@ -17070,7 +17070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>34</v>
       </c>
@@ -17084,7 +17084,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -17104,7 +17104,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>22</v>
       </c>
@@ -17118,7 +17118,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>19</v>
       </c>
@@ -17132,7 +17132,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>20</v>
       </c>
@@ -17146,7 +17146,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>359</v>
       </c>
@@ -17160,7 +17160,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>363</v>
       </c>
@@ -17174,7 +17174,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>34</v>
       </c>
@@ -17188,7 +17188,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -17205,7 +17205,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
         <v>424</v>
       </c>
@@ -17216,7 +17216,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>587</v>
       </c>
@@ -17236,7 +17236,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>20</v>
       </c>
@@ -17250,7 +17250,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>359</v>
       </c>
@@ -17264,7 +17264,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>363</v>
       </c>
@@ -17278,7 +17278,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>154</v>
       </c>
@@ -17298,7 +17298,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>20</v>
       </c>
@@ -17312,7 +17312,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>119</v>
       </c>
@@ -17332,7 +17332,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>91</v>
       </c>
@@ -17346,7 +17346,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>91</v>
       </c>
@@ -17377,17 +17377,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17407,7 +17407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -17427,7 +17427,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -17441,7 +17441,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -17455,7 +17455,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -17469,7 +17469,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>359</v>
       </c>
@@ -17483,7 +17483,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>363</v>
       </c>
@@ -17497,7 +17497,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -17514,7 +17514,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>589</v>
       </c>
@@ -17525,7 +17525,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>327</v>
       </c>
@@ -17545,7 +17545,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -17559,7 +17559,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>359</v>
       </c>
@@ -17573,7 +17573,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>363</v>
       </c>
@@ -17587,7 +17587,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>328</v>
       </c>
@@ -17607,7 +17607,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>363</v>
       </c>
@@ -17621,7 +17621,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>599</v>
       </c>
@@ -17632,7 +17632,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>363</v>
       </c>
@@ -17646,7 +17646,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>34</v>
       </c>
@@ -17660,7 +17660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -17680,7 +17680,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -17694,7 +17694,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -17708,7 +17708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>359</v>
       </c>
@@ -17722,7 +17722,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>363</v>
       </c>
@@ -17736,7 +17736,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -17756,7 +17756,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>19</v>
       </c>
@@ -17770,7 +17770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>20</v>
       </c>
@@ -17784,7 +17784,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>359</v>
       </c>
@@ -17798,7 +17798,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -17815,7 +17815,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -17835,7 +17835,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -17849,7 +17849,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>329</v>
       </c>
@@ -17869,7 +17869,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>20</v>
       </c>
@@ -17883,7 +17883,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>359</v>
       </c>
@@ -17897,7 +17897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -17917,7 +17917,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>330</v>
       </c>
@@ -17937,7 +17937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -17951,7 +17951,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>359</v>
       </c>
@@ -17965,7 +17965,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>363</v>
       </c>
@@ -17979,7 +17979,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>34</v>
       </c>
@@ -17993,7 +17993,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -18013,7 +18013,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>22</v>
       </c>
@@ -18027,7 +18027,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>19</v>
       </c>
@@ -18041,7 +18041,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>20</v>
       </c>
@@ -18055,7 +18055,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>359</v>
       </c>
@@ -18069,7 +18069,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>151</v>
       </c>
@@ -18089,7 +18089,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>20</v>
       </c>
@@ -18103,7 +18103,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>359</v>
       </c>
@@ -18117,7 +18117,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>363</v>
       </c>
@@ -18131,7 +18131,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>34</v>
       </c>
@@ -18145,7 +18145,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -18165,7 +18165,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -18179,7 +18179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>359</v>
       </c>
@@ -18193,7 +18193,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -18213,7 +18213,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>22</v>
       </c>
@@ -18227,7 +18227,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>19</v>
       </c>
@@ -18241,7 +18241,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -18255,7 +18255,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>359</v>
       </c>
@@ -18269,7 +18269,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -18286,7 +18286,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
         <v>422</v>
       </c>
@@ -18297,7 +18297,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>331</v>
       </c>
@@ -18317,7 +18317,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>119</v>
       </c>
@@ -18337,7 +18337,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>91</v>
       </c>
@@ -18351,7 +18351,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>91</v>
       </c>
@@ -18365,7 +18365,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>363</v>
       </c>
@@ -18396,17 +18396,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -18426,7 +18426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -18446,7 +18446,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -18460,7 +18460,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -18474,7 +18474,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -18491,7 +18491,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>327</v>
       </c>
@@ -18511,7 +18511,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -18525,7 +18525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>359</v>
       </c>
@@ -18539,7 +18539,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>363</v>
       </c>
@@ -18553,7 +18553,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>34</v>
       </c>
@@ -18567,7 +18567,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>328</v>
       </c>
@@ -18587,7 +18587,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -18601,7 +18601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>359</v>
       </c>
@@ -18615,12 +18615,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -18640,7 +18640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>363</v>
       </c>
@@ -18654,7 +18654,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>359</v>
       </c>
@@ -18668,7 +18668,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>363</v>
       </c>
@@ -18682,7 +18682,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>34</v>
       </c>
@@ -18696,7 +18696,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -18716,7 +18716,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -18736,7 +18736,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -18750,7 +18750,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>20</v>
       </c>
@@ -18764,7 +18764,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>359</v>
       </c>
@@ -18778,7 +18778,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>363</v>
       </c>
@@ -18792,7 +18792,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -18809,7 +18809,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>554</v>
       </c>
@@ -18820,7 +18820,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>88</v>
       </c>
@@ -18840,7 +18840,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>20</v>
       </c>
@@ -18854,7 +18854,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>359</v>
       </c>
@@ -18868,7 +18868,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>363</v>
       </c>
@@ -18882,7 +18882,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>330</v>
       </c>
@@ -18902,7 +18902,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>20</v>
       </c>
@@ -18916,7 +18916,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>359</v>
       </c>
@@ -18930,7 +18930,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>363</v>
       </c>
@@ -18944,7 +18944,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -18964,7 +18964,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>22</v>
       </c>
@@ -18978,7 +18978,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -18998,7 +18998,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -19012,7 +19012,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>339</v>
       </c>
@@ -19032,7 +19032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>359</v>
       </c>
@@ -19046,7 +19046,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>363</v>
       </c>
@@ -19060,7 +19060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>34</v>
       </c>
@@ -19074,7 +19074,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>151</v>
       </c>
@@ -19094,7 +19094,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -19108,7 +19108,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>359</v>
       </c>
@@ -19122,7 +19122,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -19142,7 +19142,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>22</v>
       </c>
@@ -19156,7 +19156,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>19</v>
       </c>
@@ -19170,7 +19170,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>20</v>
       </c>
@@ -19184,7 +19184,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>359</v>
       </c>
@@ -19198,7 +19198,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -19215,7 +19215,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
         <v>528</v>
       </c>
@@ -19226,7 +19226,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>90</v>
       </c>
@@ -19246,7 +19246,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>359</v>
       </c>
@@ -19260,7 +19260,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>363</v>
       </c>
@@ -19274,7 +19274,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>34</v>
       </c>
@@ -19288,7 +19288,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>126</v>
       </c>
@@ -19308,7 +19308,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>20</v>
       </c>
@@ -19322,7 +19322,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>359</v>
       </c>
@@ -19336,7 +19336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>363</v>
       </c>
@@ -19350,7 +19350,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>154</v>
       </c>
@@ -19370,7 +19370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>20</v>
       </c>
@@ -19384,7 +19384,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>331</v>
       </c>
@@ -19404,7 +19404,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -19418,7 +19418,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>359</v>
       </c>
@@ -19432,7 +19432,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -19452,7 +19452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>20</v>
       </c>
@@ -19466,7 +19466,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>359</v>
       </c>
@@ -19480,7 +19480,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>119</v>
       </c>

--- a/Tennis/ATP Tour/Andy Roddick.xlsx
+++ b/Tennis/ATP Tour/Andy Roddick.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4075" documentId="13_ncr:1_{0A1EECD3-9448-4D45-9666-76DA02865CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E61B0945-2239-4558-B515-C83F38BCEF73}"/>
+  <xr:revisionPtr revIDLastSave="4076" documentId="13_ncr:1_{0A1EECD3-9448-4D45-9666-76DA02865CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF566C1C-4C82-4787-87B8-DEBFEE7DB213}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="5" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="37" r:id="rId1"/>
@@ -5341,17 +5341,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>350</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>22</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>151</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>359</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>361</v>
       </c>
@@ -5547,12 +5547,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>362</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>359</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>363</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>34</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>364</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>359</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>363</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>365</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>20</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>359</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>363</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>34</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>366</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>20</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>359</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>363</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>34</v>
       </c>
@@ -5856,17 +5856,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>359</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>363</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>359</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>363</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>327</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>393</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>19</v>
       </c>
@@ -6111,12 +6111,12 @@
         <v>695</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>328</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>359</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>363</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>651</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>19</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>20</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>359</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>363</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>359</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>154</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>20</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>359</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>22</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>19</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>340</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>20</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>359</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>363</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>22</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>359</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>363</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>34</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>151</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>20</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>359</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>363</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>34</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>20</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>359</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>363</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>53</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>22</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>19</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>117</v>
       </c>
@@ -6898,17 +6898,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>359</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>363</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>359</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>327</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>359</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -7156,12 +7156,12 @@
         <v>746</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>328</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>359</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>19</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>359</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>363</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>34</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>19</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>359</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>363</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>34</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>89</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>22</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>19</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>20</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>22</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>19</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>20</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>341</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>359</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>363</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>151</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>20</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>22</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>20</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>359</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>117</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>19</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>54</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>20</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>359</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>363</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>20</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>359</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>119</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>91</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>91</v>
       </c>
@@ -7906,17 +7906,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>359</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>363</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>328</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>359</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>363</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -8150,12 +8150,12 @@
         <v>785</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>570</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>19</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>20</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>154</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>359</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>363</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>22</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>19</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>342</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>359</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>363</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>22</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>19</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>20</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>359</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>90</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>117</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>19</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>20</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>359</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>359</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>98</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>20</v>
       </c>
@@ -8760,17 +8760,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>327</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>359</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>328</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>343</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>359</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>19</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>19</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>340</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>359</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>363</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>34</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>22</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>341</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>359</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>363</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>34</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>349</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>342</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>22</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>19</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>20</v>
       </c>
@@ -9402,18 +9402,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>0.61904761904761907</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>0.63043478260869568</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>0.6071428571428571</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>0.73611111111111116</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>0.7567567567567568</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -9560,7 +9560,7 @@
       </c>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -9582,7 +9582,7 @@
       </c>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -9604,7 +9604,7 @@
       </c>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -9626,7 +9626,7 @@
       </c>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -9648,7 +9648,7 @@
       </c>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>0.61363636363636365</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>0.52941176470588236</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>0.43478260869565216</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>0.66185897435897434</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>0.66185897435897434</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
     </row>
   </sheetData>
@@ -9790,17 +9790,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>387</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>359</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>363</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>328</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>19</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>327</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>343</v>
       </c>
@@ -10001,12 +10001,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>19</v>
       </c>
@@ -10037,7 +10037,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>359</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>402</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>405</v>
       </c>
@@ -10133,7 +10133,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>20</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>359</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>363</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>34</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>406</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>359</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>363</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>34</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>22</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>417</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>359</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>363</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -10415,7 +10415,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>22</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>19</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>425</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>19</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>20</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>359</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>85</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>151</v>
       </c>
@@ -10565,7 +10565,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>19</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -10593,7 +10593,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>359</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>363</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>34</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>22</v>
       </c>
@@ -10669,7 +10669,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>19</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>20</v>
       </c>
@@ -10697,7 +10697,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>359</v>
       </c>
@@ -10711,7 +10711,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>437</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>440</v>
       </c>
@@ -10751,7 +10751,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>20</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>54</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>20</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>359</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -10850,17 +10850,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>445</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -10914,7 +10914,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>359</v>
       </c>
@@ -10928,7 +10928,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>363</v>
       </c>
@@ -10942,7 +10942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>22</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>453</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>328</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -11038,7 +11038,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>359</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>363</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -11080,12 +11080,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>327</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>20</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>359</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>363</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>343</v>
       </c>
@@ -11164,7 +11164,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>359</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>363</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>34</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>433</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>461</v>
       </c>
@@ -11288,7 +11288,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>406</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>20</v>
       </c>
@@ -11350,7 +11350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>359</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>363</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>34</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -11412,7 +11412,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>19</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -11440,7 +11440,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>359</v>
       </c>
@@ -11454,7 +11454,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>363</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>466</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>19</v>
       </c>
@@ -11502,7 +11502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>20</v>
       </c>
@@ -11516,7 +11516,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>468</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>470</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>89</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>417</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>52</v>
       </c>
@@ -11604,7 +11604,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>22</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>19</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>425</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>20</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>359</v>
       </c>
@@ -11680,7 +11680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>363</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>19</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>20</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>359</v>
       </c>
@@ -11756,7 +11756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>363</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>34</v>
       </c>
@@ -11784,7 +11784,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>85</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>19</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>20</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>359</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>151</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>20</v>
       </c>
@@ -11880,7 +11880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>53</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>22</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>19</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>20</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>359</v>
       </c>
@@ -11956,7 +11956,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>78</v>
       </c>
@@ -11973,7 +11973,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>470</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>154</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>54</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>20</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>359</v>
       </c>
@@ -12052,7 +12052,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -12072,7 +12072,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>20</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>359</v>
       </c>
@@ -12117,17 +12117,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>445</v>
       </c>
@@ -12167,7 +12167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -12201,7 +12201,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>22</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>19</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>359</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>363</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>328</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>359</v>
       </c>
@@ -12319,7 +12319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>363</v>
       </c>
@@ -12333,7 +12333,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>34</v>
       </c>
@@ -12347,12 +12347,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>343</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -12420,7 +12420,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>359</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -12454,7 +12454,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>19</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>461</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>406</v>
       </c>
@@ -12508,7 +12508,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>20</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>359</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>363</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>34</v>
       </c>
@@ -12564,7 +12564,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -12584,7 +12584,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>19</v>
       </c>
@@ -12598,7 +12598,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>497</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>19</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>499</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>20</v>
       </c>
@@ -12666,7 +12666,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>359</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>363</v>
       </c>
@@ -12694,7 +12694,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>34</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -12748,7 +12748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>20</v>
       </c>
@@ -12762,7 +12762,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>359</v>
       </c>
@@ -12776,7 +12776,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>363</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>34</v>
       </c>
@@ -12804,7 +12804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>22</v>
       </c>
@@ -12838,7 +12838,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>19</v>
       </c>
@@ -12852,7 +12852,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>359</v>
       </c>
@@ -12880,7 +12880,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>363</v>
       </c>
@@ -12894,7 +12894,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>505</v>
       </c>
@@ -12914,7 +12914,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -12928,7 +12928,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>359</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>363</v>
       </c>
@@ -12956,7 +12956,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>34</v>
       </c>
@@ -12970,7 +12970,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>151</v>
       </c>
@@ -12990,7 +12990,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -13004,7 +13004,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>359</v>
       </c>
@@ -13018,7 +13018,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>363</v>
       </c>
@@ -13032,7 +13032,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>19</v>
       </c>
@@ -13066,7 +13066,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -13080,7 +13080,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>359</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>363</v>
       </c>
@@ -13108,7 +13108,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>34</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -13142,7 +13142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>19</v>
       </c>
@@ -13156,7 +13156,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -13170,7 +13170,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>359</v>
       </c>
@@ -13184,7 +13184,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>363</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>34</v>
       </c>
@@ -13212,7 +13212,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>53</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>22</v>
       </c>
@@ -13246,7 +13246,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>19</v>
       </c>
@@ -13260,7 +13260,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>20</v>
       </c>
@@ -13274,7 +13274,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>359</v>
       </c>
@@ -13288,7 +13288,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>363</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>34</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>78</v>
       </c>
@@ -13333,7 +13333,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
         <v>430</v>
       </c>
@@ -13344,7 +13344,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>154</v>
       </c>
@@ -13364,7 +13364,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>20</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>54</v>
       </c>
@@ -13398,7 +13398,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>20</v>
       </c>
@@ -13412,7 +13412,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>359</v>
       </c>
@@ -13426,7 +13426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>363</v>
       </c>
@@ -13440,7 +13440,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>98</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>20</v>
       </c>
@@ -13474,7 +13474,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>359</v>
       </c>
@@ -13488,7 +13488,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>363</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>119</v>
       </c>
@@ -13522,7 +13522,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>91</v>
       </c>
@@ -13536,7 +13536,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>91</v>
       </c>
@@ -13550,7 +13550,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>363</v>
       </c>
@@ -13582,17 +13582,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13612,7 +13612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -13632,7 +13632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>22</v>
       </c>
@@ -13680,7 +13680,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>19</v>
       </c>
@@ -13694,7 +13694,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -13708,7 +13708,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>359</v>
       </c>
@@ -13722,7 +13722,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>409</v>
       </c>
@@ -13750,7 +13750,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>327</v>
       </c>
@@ -13770,7 +13770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -13784,7 +13784,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>359</v>
       </c>
@@ -13798,7 +13798,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -13812,7 +13812,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -13826,7 +13826,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>328</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -13860,7 +13860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>359</v>
       </c>
@@ -13874,7 +13874,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>524</v>
       </c>
@@ -13894,7 +13894,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -13908,7 +13908,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>359</v>
       </c>
@@ -13922,7 +13922,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>363</v>
       </c>
@@ -13936,7 +13936,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -13956,7 +13956,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>19</v>
       </c>
@@ -13970,7 +13970,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>20</v>
       </c>
@@ -13984,7 +13984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>359</v>
       </c>
@@ -13998,7 +13998,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -14018,7 +14018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>19</v>
       </c>
@@ -14032,7 +14032,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>20</v>
       </c>
@@ -14046,7 +14046,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>359</v>
       </c>
@@ -14060,7 +14060,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>363</v>
       </c>
@@ -14074,7 +14074,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>34</v>
       </c>
@@ -14088,7 +14088,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>490</v>
       </c>
@@ -14116,7 +14116,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>406</v>
       </c>
@@ -14136,7 +14136,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>20</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>359</v>
       </c>
@@ -14164,7 +14164,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>363</v>
       </c>
@@ -14178,7 +14178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>34</v>
       </c>
@@ -14192,7 +14192,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -14212,7 +14212,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -14232,7 +14232,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>22</v>
       </c>
@@ -14246,7 +14246,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>92</v>
       </c>
@@ -14266,7 +14266,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>20</v>
       </c>
@@ -14280,7 +14280,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>359</v>
       </c>
@@ -14294,7 +14294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>363</v>
       </c>
@@ -14308,7 +14308,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>34</v>
       </c>
@@ -14322,7 +14322,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>52</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>22</v>
       </c>
@@ -14356,7 +14356,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>19</v>
       </c>
@@ -14370,7 +14370,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>359</v>
       </c>
@@ -14398,7 +14398,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>363</v>
       </c>
@@ -14412,7 +14412,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>34</v>
       </c>
@@ -14426,7 +14426,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>505</v>
       </c>
@@ -14446,7 +14446,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -14460,7 +14460,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>359</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>363</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>34</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -14522,7 +14522,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>19</v>
       </c>
@@ -14536,7 +14536,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>20</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>359</v>
       </c>
@@ -14564,7 +14564,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>363</v>
       </c>
@@ -14578,7 +14578,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>34</v>
       </c>
@@ -14592,7 +14592,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -14612,7 +14612,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>19</v>
       </c>
@@ -14626,7 +14626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>20</v>
       </c>
@@ -14640,7 +14640,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>359</v>
       </c>
@@ -14654,7 +14654,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>363</v>
       </c>
@@ -14668,7 +14668,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>349</v>
       </c>
@@ -14688,7 +14688,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>19</v>
       </c>
@@ -14702,7 +14702,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>20</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>53</v>
       </c>
@@ -14736,7 +14736,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>22</v>
       </c>
@@ -14750,7 +14750,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>19</v>
       </c>
@@ -14764,7 +14764,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>20</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>359</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>78</v>
       </c>
@@ -14812,7 +14812,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>18</v>
       </c>
@@ -14826,7 +14826,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>540</v>
       </c>
@@ -14846,7 +14846,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>20</v>
       </c>
@@ -14860,7 +14860,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>359</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>363</v>
       </c>
@@ -14888,7 +14888,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>34</v>
       </c>
@@ -14902,7 +14902,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>98</v>
       </c>
@@ -14922,7 +14922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>20</v>
       </c>
@@ -14936,7 +14936,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>119</v>
       </c>
@@ -14956,7 +14956,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>91</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>91</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>363</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>78</v>
       </c>
@@ -15015,7 +15015,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
         <v>528</v>
       </c>
@@ -15044,17 +15044,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -15094,7 +15094,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -15108,7 +15108,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -15136,7 +15136,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>359</v>
       </c>
@@ -15150,7 +15150,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>363</v>
       </c>
@@ -15164,7 +15164,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>327</v>
       </c>
@@ -15184,7 +15184,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>20</v>
       </c>
@@ -15198,7 +15198,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>359</v>
       </c>
@@ -15212,7 +15212,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>363</v>
       </c>
@@ -15226,7 +15226,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>34</v>
       </c>
@@ -15240,7 +15240,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>328</v>
       </c>
@@ -15260,7 +15260,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -15274,7 +15274,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>382</v>
       </c>
@@ -15285,7 +15285,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>19</v>
       </c>
@@ -15299,12 +15299,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -15321,7 +15321,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>531</v>
       </c>
@@ -15332,7 +15332,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -15352,7 +15352,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -15366,7 +15366,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -15380,7 +15380,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>359</v>
       </c>
@@ -15394,7 +15394,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>363</v>
       </c>
@@ -15408,7 +15408,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -15428,7 +15428,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>406</v>
       </c>
@@ -15448,7 +15448,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>20</v>
       </c>
@@ -15462,7 +15462,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>359</v>
       </c>
@@ -15476,7 +15476,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>363</v>
       </c>
@@ -15490,7 +15490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>34</v>
       </c>
@@ -15504,7 +15504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>19</v>
       </c>
@@ -15538,7 +15538,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>20</v>
       </c>
@@ -15552,7 +15552,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>466</v>
       </c>
@@ -15572,7 +15572,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -15592,7 +15592,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>22</v>
       </c>
@@ -15606,7 +15606,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -15626,7 +15626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -15640,7 +15640,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>359</v>
       </c>
@@ -15654,7 +15654,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>363</v>
       </c>
@@ -15668,7 +15668,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>34</v>
       </c>
@@ -15682,7 +15682,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -15702,7 +15702,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>22</v>
       </c>
@@ -15716,7 +15716,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>19</v>
       </c>
@@ -15730,7 +15730,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>20</v>
       </c>
@@ -15744,7 +15744,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>359</v>
       </c>
@@ -15758,7 +15758,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>363</v>
       </c>
@@ -15772,7 +15772,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>34</v>
       </c>
@@ -15786,7 +15786,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>505</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>20</v>
       </c>
@@ -15820,7 +15820,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>359</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>151</v>
       </c>
@@ -15854,7 +15854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -15868,7 +15868,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>359</v>
       </c>
@@ -15882,7 +15882,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>363</v>
       </c>
@@ -15896,7 +15896,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>34</v>
       </c>
@@ -15910,7 +15910,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>84</v>
       </c>
@@ -15930,7 +15930,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -15950,7 +15950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>19</v>
       </c>
@@ -15964,7 +15964,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>20</v>
       </c>
@@ -15978,7 +15978,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>359</v>
       </c>
@@ -15992,7 +15992,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>363</v>
       </c>
@@ -16006,7 +16006,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>34</v>
       </c>
@@ -16020,7 +16020,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>53</v>
       </c>
@@ -16040,7 +16040,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -16057,7 +16057,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>519</v>
       </c>
@@ -16068,7 +16068,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>154</v>
       </c>
@@ -16088,7 +16088,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>556</v>
       </c>
@@ -16108,7 +16108,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>20</v>
       </c>
@@ -16122,7 +16122,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>359</v>
       </c>
@@ -16136,7 +16136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>363</v>
       </c>
@@ -16150,7 +16150,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>34</v>
       </c>
@@ -16164,7 +16164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -16184,7 +16184,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>20</v>
       </c>
@@ -16198,7 +16198,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>359</v>
       </c>
@@ -16212,7 +16212,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>363</v>
       </c>
@@ -16243,17 +16243,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16273,7 +16273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -16293,7 +16293,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -16307,7 +16307,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -16321,7 +16321,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -16335,7 +16335,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -16352,7 +16352,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>400</v>
       </c>
@@ -16363,7 +16363,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>327</v>
       </c>
@@ -16383,7 +16383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -16397,7 +16397,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>359</v>
       </c>
@@ -16411,7 +16411,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>363</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>328</v>
       </c>
@@ -16445,7 +16445,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -16459,7 +16459,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>535</v>
       </c>
@@ -16470,12 +16470,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -16495,7 +16495,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -16509,7 +16509,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -16523,7 +16523,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -16543,7 +16543,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -16557,7 +16557,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -16571,7 +16571,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>359</v>
       </c>
@@ -16585,7 +16585,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -16602,7 +16602,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>575</v>
       </c>
@@ -16613,7 +16613,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>406</v>
       </c>
@@ -16633,7 +16633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>20</v>
       </c>
@@ -16647,7 +16647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>359</v>
       </c>
@@ -16661,7 +16661,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>88</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -16695,7 +16695,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -16709,7 +16709,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>359</v>
       </c>
@@ -16723,7 +16723,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>468</v>
       </c>
@@ -16740,7 +16740,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -16760,7 +16760,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -16780,7 +16780,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>20</v>
       </c>
@@ -16794,7 +16794,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>359</v>
       </c>
@@ -16808,7 +16808,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>363</v>
       </c>
@@ -16822,7 +16822,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -16842,7 +16842,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>22</v>
       </c>
@@ -16856,7 +16856,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>19</v>
       </c>
@@ -16870,7 +16870,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>505</v>
       </c>
@@ -16890,7 +16890,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>20</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>359</v>
       </c>
@@ -16918,7 +16918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>363</v>
       </c>
@@ -16932,7 +16932,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>34</v>
       </c>
@@ -16946,7 +16946,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>339</v>
       </c>
@@ -16966,7 +16966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>18</v>
       </c>
@@ -16980,7 +16980,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>18</v>
       </c>
@@ -16994,7 +16994,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -17014,7 +17014,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>19</v>
       </c>
@@ -17028,7 +17028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -17042,7 +17042,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>359</v>
       </c>
@@ -17056,7 +17056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>363</v>
       </c>
@@ -17070,7 +17070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>34</v>
       </c>
@@ -17084,7 +17084,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -17104,7 +17104,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>22</v>
       </c>
@@ -17118,7 +17118,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>19</v>
       </c>
@@ -17132,7 +17132,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>20</v>
       </c>
@@ -17146,7 +17146,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>359</v>
       </c>
@@ -17160,7 +17160,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>363</v>
       </c>
@@ -17174,7 +17174,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>34</v>
       </c>
@@ -17188,7 +17188,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -17205,7 +17205,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>424</v>
       </c>
@@ -17216,7 +17216,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>587</v>
       </c>
@@ -17236,7 +17236,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>20</v>
       </c>
@@ -17250,7 +17250,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>359</v>
       </c>
@@ -17264,7 +17264,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>363</v>
       </c>
@@ -17278,7 +17278,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>154</v>
       </c>
@@ -17298,7 +17298,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>20</v>
       </c>
@@ -17312,7 +17312,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>119</v>
       </c>
@@ -17332,7 +17332,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>91</v>
       </c>
@@ -17346,7 +17346,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>91</v>
       </c>
@@ -17377,17 +17377,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17407,7 +17407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -17427,7 +17427,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -17441,7 +17441,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -17455,7 +17455,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -17469,7 +17469,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>359</v>
       </c>
@@ -17483,7 +17483,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>363</v>
       </c>
@@ -17497,7 +17497,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -17514,7 +17514,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>589</v>
       </c>
@@ -17525,7 +17525,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>327</v>
       </c>
@@ -17545,7 +17545,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -17559,7 +17559,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>359</v>
       </c>
@@ -17573,7 +17573,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>363</v>
       </c>
@@ -17587,7 +17587,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>328</v>
       </c>
@@ -17607,7 +17607,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>363</v>
       </c>
@@ -17621,7 +17621,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>599</v>
       </c>
@@ -17632,7 +17632,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>363</v>
       </c>
@@ -17646,7 +17646,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>34</v>
       </c>
@@ -17660,7 +17660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -17680,7 +17680,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -17694,7 +17694,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -17708,7 +17708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>359</v>
       </c>
@@ -17722,7 +17722,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>363</v>
       </c>
@@ -17736,7 +17736,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -17756,7 +17756,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>19</v>
       </c>
@@ -17770,7 +17770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>20</v>
       </c>
@@ -17784,7 +17784,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>359</v>
       </c>
@@ -17798,7 +17798,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -17815,7 +17815,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -17835,7 +17835,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -17849,7 +17849,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>329</v>
       </c>
@@ -17869,7 +17869,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>20</v>
       </c>
@@ -17883,7 +17883,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>359</v>
       </c>
@@ -17897,7 +17897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -17917,7 +17917,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>330</v>
       </c>
@@ -17937,7 +17937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -17951,7 +17951,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>359</v>
       </c>
@@ -17965,7 +17965,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>363</v>
       </c>
@@ -17979,7 +17979,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>34</v>
       </c>
@@ -17993,7 +17993,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -18013,7 +18013,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>22</v>
       </c>
@@ -18027,7 +18027,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>19</v>
       </c>
@@ -18041,7 +18041,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>20</v>
       </c>
@@ -18055,7 +18055,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>359</v>
       </c>
@@ -18069,7 +18069,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>151</v>
       </c>
@@ -18089,7 +18089,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>20</v>
       </c>
@@ -18103,7 +18103,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>359</v>
       </c>
@@ -18117,7 +18117,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>363</v>
       </c>
@@ -18131,7 +18131,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>34</v>
       </c>
@@ -18145,7 +18145,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -18165,7 +18165,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -18179,7 +18179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>359</v>
       </c>
@@ -18193,7 +18193,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -18213,7 +18213,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>22</v>
       </c>
@@ -18227,7 +18227,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>19</v>
       </c>
@@ -18241,7 +18241,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -18255,7 +18255,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>359</v>
       </c>
@@ -18269,7 +18269,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -18286,7 +18286,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>422</v>
       </c>
@@ -18297,7 +18297,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>331</v>
       </c>
@@ -18317,7 +18317,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>119</v>
       </c>
@@ -18337,7 +18337,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>91</v>
       </c>
@@ -18351,7 +18351,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>91</v>
       </c>
@@ -18365,7 +18365,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>363</v>
       </c>
@@ -18396,17 +18396,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -18426,7 +18426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -18446,7 +18446,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -18460,7 +18460,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -18474,7 +18474,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -18491,7 +18491,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>327</v>
       </c>
@@ -18511,7 +18511,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -18525,7 +18525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>359</v>
       </c>
@@ -18539,7 +18539,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>363</v>
       </c>
@@ -18553,7 +18553,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>34</v>
       </c>
@@ -18567,7 +18567,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>328</v>
       </c>
@@ -18587,7 +18587,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -18601,7 +18601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>359</v>
       </c>
@@ -18615,12 +18615,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -18640,7 +18640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>363</v>
       </c>
@@ -18654,7 +18654,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>359</v>
       </c>
@@ -18668,7 +18668,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>363</v>
       </c>
@@ -18682,7 +18682,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>34</v>
       </c>
@@ -18696,7 +18696,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -18716,7 +18716,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -18736,7 +18736,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -18750,7 +18750,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>20</v>
       </c>
@@ -18764,7 +18764,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>359</v>
       </c>
@@ -18778,7 +18778,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>363</v>
       </c>
@@ -18792,7 +18792,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -18809,7 +18809,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>554</v>
       </c>
@@ -18820,7 +18820,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>88</v>
       </c>
@@ -18840,7 +18840,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>20</v>
       </c>
@@ -18854,7 +18854,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>359</v>
       </c>
@@ -18868,7 +18868,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>363</v>
       </c>
@@ -18882,7 +18882,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>330</v>
       </c>
@@ -18902,7 +18902,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>20</v>
       </c>
@@ -18916,7 +18916,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>359</v>
       </c>
@@ -18930,7 +18930,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>363</v>
       </c>
@@ -18944,7 +18944,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -18964,7 +18964,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>22</v>
       </c>
@@ -18978,7 +18978,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -18998,7 +18998,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -19012,7 +19012,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>339</v>
       </c>
@@ -19032,7 +19032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>359</v>
       </c>
@@ -19046,7 +19046,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>363</v>
       </c>
@@ -19060,7 +19060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>34</v>
       </c>
@@ -19074,7 +19074,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>151</v>
       </c>
@@ -19094,7 +19094,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -19108,7 +19108,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>359</v>
       </c>
@@ -19122,7 +19122,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -19142,7 +19142,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>22</v>
       </c>
@@ -19156,7 +19156,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>19</v>
       </c>
@@ -19170,7 +19170,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>20</v>
       </c>
@@ -19184,7 +19184,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>359</v>
       </c>
@@ -19198,7 +19198,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -19215,7 +19215,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>528</v>
       </c>
@@ -19226,7 +19226,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>90</v>
       </c>
@@ -19246,7 +19246,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>359</v>
       </c>
@@ -19260,7 +19260,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>363</v>
       </c>
@@ -19274,7 +19274,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>34</v>
       </c>
@@ -19288,7 +19288,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>126</v>
       </c>
@@ -19308,7 +19308,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>20</v>
       </c>
@@ -19322,7 +19322,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>359</v>
       </c>
@@ -19336,7 +19336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>363</v>
       </c>
@@ -19350,7 +19350,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>154</v>
       </c>
@@ -19370,7 +19370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>20</v>
       </c>
@@ -19384,7 +19384,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>331</v>
       </c>
@@ -19404,7 +19404,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -19418,7 +19418,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>359</v>
       </c>
@@ -19432,7 +19432,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -19452,7 +19452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>20</v>
       </c>
@@ -19466,7 +19466,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>359</v>
       </c>
@@ -19480,7 +19480,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>119</v>
       </c>

--- a/Tennis/ATP Tour/Andy Roddick.xlsx
+++ b/Tennis/ATP Tour/Andy Roddick.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4076" documentId="13_ncr:1_{0A1EECD3-9448-4D45-9666-76DA02865CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF566C1C-4C82-4787-87B8-DEBFEE7DB213}"/>
+  <xr:revisionPtr revIDLastSave="4077" documentId="13_ncr:1_{0A1EECD3-9448-4D45-9666-76DA02865CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DDA13B9-0A9F-45E3-9B17-88A3264B2014}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="37" r:id="rId1"/>
@@ -5036,9 +5036,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5076,7 +5076,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5182,7 +5182,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5324,7 +5324,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5341,17 +5341,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>350</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>22</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>151</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>359</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>361</v>
       </c>
@@ -5547,12 +5547,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>362</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>359</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>363</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>34</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>364</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>359</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>363</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>365</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>20</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>359</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>363</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>34</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>366</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>20</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>359</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>363</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>34</v>
       </c>
@@ -5856,17 +5856,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>359</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>363</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>359</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>363</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>327</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>393</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>19</v>
       </c>
@@ -6111,12 +6111,12 @@
         <v>695</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>328</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>359</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>363</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>651</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>19</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>20</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>359</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>363</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>359</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>154</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>20</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>359</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>22</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>19</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>340</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>20</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>359</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>363</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>22</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>359</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>363</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>34</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>151</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>20</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>359</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>363</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>34</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>20</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>359</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>363</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>53</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>22</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>19</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>117</v>
       </c>
@@ -6898,17 +6898,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>359</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>363</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>359</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>327</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>359</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -7156,12 +7156,12 @@
         <v>746</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>328</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>359</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>19</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>359</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>363</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>34</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>19</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>359</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>363</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>34</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>89</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>22</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>19</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>20</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>22</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>19</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>20</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>341</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>359</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>363</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>151</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>20</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>22</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>20</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>359</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>117</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>19</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>54</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>20</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>359</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>363</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>20</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>359</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>119</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>91</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>91</v>
       </c>
@@ -7906,17 +7906,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>359</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>363</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>328</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>359</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>363</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -8150,12 +8150,12 @@
         <v>785</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>570</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>19</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>20</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>154</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>359</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>363</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>22</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>19</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>342</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>359</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>363</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>22</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>19</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>20</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>359</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>90</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>117</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>19</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>20</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>359</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>359</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>98</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>20</v>
       </c>
@@ -8760,17 +8760,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>327</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>359</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>328</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>343</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>359</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>19</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>19</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>340</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>359</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>363</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>34</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>22</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>341</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>359</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>363</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>34</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>349</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>342</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>22</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>19</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>20</v>
       </c>
@@ -9402,18 +9402,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>0.61904761904761907</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>0.63043478260869568</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>0.6071428571428571</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>0.73611111111111116</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>0.7567567567567568</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -9560,7 +9560,7 @@
       </c>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -9582,7 +9582,7 @@
       </c>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -9604,7 +9604,7 @@
       </c>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -9626,7 +9626,7 @@
       </c>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -9648,7 +9648,7 @@
       </c>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>0.61363636363636365</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>0.52941176470588236</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>0.43478260869565216</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>0.66185897435897434</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>0.66185897435897434</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
     </row>
   </sheetData>
@@ -9790,17 +9790,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>387</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>359</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>363</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>328</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>19</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>327</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>343</v>
       </c>
@@ -10001,12 +10001,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>19</v>
       </c>
@@ -10037,7 +10037,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>359</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>402</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>405</v>
       </c>
@@ -10133,7 +10133,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>20</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>359</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>363</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>34</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>406</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>359</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>363</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>34</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>22</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>417</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>359</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>363</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -10415,7 +10415,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>22</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>19</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>425</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>19</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>20</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>359</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>85</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>151</v>
       </c>
@@ -10565,7 +10565,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>19</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -10593,7 +10593,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>359</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>363</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>34</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>22</v>
       </c>
@@ -10669,7 +10669,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>19</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>20</v>
       </c>
@@ -10697,7 +10697,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>359</v>
       </c>
@@ -10711,7 +10711,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>437</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>440</v>
       </c>
@@ -10751,7 +10751,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>20</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>54</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>20</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>359</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -10850,17 +10850,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>445</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -10914,7 +10914,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>359</v>
       </c>
@@ -10928,7 +10928,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>363</v>
       </c>
@@ -10942,7 +10942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>22</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>453</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>328</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -11038,7 +11038,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>359</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>363</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -11080,12 +11080,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>327</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>20</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>359</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>363</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>343</v>
       </c>
@@ -11164,7 +11164,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>359</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>363</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>34</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>433</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>461</v>
       </c>
@@ -11288,7 +11288,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>406</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>20</v>
       </c>
@@ -11350,7 +11350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>359</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>363</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>34</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -11412,7 +11412,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>19</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -11440,7 +11440,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>359</v>
       </c>
@@ -11454,7 +11454,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>363</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>466</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>19</v>
       </c>
@@ -11502,7 +11502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>20</v>
       </c>
@@ -11516,7 +11516,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>468</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>470</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>89</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>417</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>52</v>
       </c>
@@ -11604,7 +11604,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>22</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>19</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>425</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>20</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>359</v>
       </c>
@@ -11680,7 +11680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>363</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>19</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>20</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>359</v>
       </c>
@@ -11756,7 +11756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>363</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>34</v>
       </c>
@@ -11784,7 +11784,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>85</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>19</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>20</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>359</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>151</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>20</v>
       </c>
@@ -11880,7 +11880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>53</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>22</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>19</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>20</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>359</v>
       </c>
@@ -11956,7 +11956,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>78</v>
       </c>
@@ -11973,7 +11973,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>470</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>154</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>54</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>20</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>359</v>
       </c>
@@ -12052,7 +12052,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -12072,7 +12072,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>20</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>359</v>
       </c>
@@ -12117,17 +12117,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>445</v>
       </c>
@@ -12167,7 +12167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -12201,7 +12201,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>22</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>19</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>359</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>363</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>328</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>359</v>
       </c>
@@ -12319,7 +12319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>363</v>
       </c>
@@ -12333,7 +12333,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>34</v>
       </c>
@@ -12347,12 +12347,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>343</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -12420,7 +12420,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>359</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -12454,7 +12454,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>19</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>461</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>406</v>
       </c>
@@ -12508,7 +12508,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>20</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>359</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>363</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>34</v>
       </c>
@@ -12564,7 +12564,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -12584,7 +12584,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>19</v>
       </c>
@@ -12598,7 +12598,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>497</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>19</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>499</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>20</v>
       </c>
@@ -12666,7 +12666,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>359</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>363</v>
       </c>
@@ -12694,7 +12694,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>34</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -12748,7 +12748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>20</v>
       </c>
@@ -12762,7 +12762,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>359</v>
       </c>
@@ -12776,7 +12776,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>363</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>34</v>
       </c>
@@ -12804,7 +12804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>22</v>
       </c>
@@ -12838,7 +12838,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>19</v>
       </c>
@@ -12852,7 +12852,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>359</v>
       </c>
@@ -12880,7 +12880,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>363</v>
       </c>
@@ -12894,7 +12894,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>505</v>
       </c>
@@ -12914,7 +12914,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -12928,7 +12928,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>359</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>363</v>
       </c>
@@ -12956,7 +12956,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>34</v>
       </c>
@@ -12970,7 +12970,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>151</v>
       </c>
@@ -12990,7 +12990,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -13004,7 +13004,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>359</v>
       </c>
@@ -13018,7 +13018,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>363</v>
       </c>
@@ -13032,7 +13032,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>19</v>
       </c>
@@ -13066,7 +13066,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -13080,7 +13080,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>359</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>363</v>
       </c>
@@ -13108,7 +13108,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>34</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -13142,7 +13142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>19</v>
       </c>
@@ -13156,7 +13156,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -13170,7 +13170,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>359</v>
       </c>
@@ -13184,7 +13184,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>363</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>34</v>
       </c>
@@ -13212,7 +13212,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>53</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>22</v>
       </c>
@@ -13246,7 +13246,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>19</v>
       </c>
@@ -13260,7 +13260,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>20</v>
       </c>
@@ -13274,7 +13274,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>359</v>
       </c>
@@ -13288,7 +13288,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>363</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>34</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>78</v>
       </c>
@@ -13333,7 +13333,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
         <v>430</v>
       </c>
@@ -13344,7 +13344,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>154</v>
       </c>
@@ -13364,7 +13364,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>20</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>54</v>
       </c>
@@ -13398,7 +13398,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>20</v>
       </c>
@@ -13412,7 +13412,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>359</v>
       </c>
@@ -13426,7 +13426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>363</v>
       </c>
@@ -13440,7 +13440,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>98</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>20</v>
       </c>
@@ -13474,7 +13474,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>359</v>
       </c>
@@ -13488,7 +13488,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>363</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>119</v>
       </c>
@@ -13522,7 +13522,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
         <v>91</v>
       </c>
@@ -13536,7 +13536,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
         <v>91</v>
       </c>
@@ -13550,7 +13550,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
         <v>363</v>
       </c>
@@ -13582,17 +13582,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13612,7 +13612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -13632,7 +13632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>22</v>
       </c>
@@ -13680,7 +13680,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>19</v>
       </c>
@@ -13694,7 +13694,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -13708,7 +13708,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>359</v>
       </c>
@@ -13722,7 +13722,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>409</v>
       </c>
@@ -13750,7 +13750,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>327</v>
       </c>
@@ -13770,7 +13770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -13784,7 +13784,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>359</v>
       </c>
@@ -13798,7 +13798,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -13812,7 +13812,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -13826,7 +13826,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>328</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -13860,7 +13860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>359</v>
       </c>
@@ -13874,7 +13874,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>524</v>
       </c>
@@ -13894,7 +13894,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -13908,7 +13908,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>359</v>
       </c>
@@ -13922,7 +13922,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>363</v>
       </c>
@@ -13936,7 +13936,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -13956,7 +13956,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>19</v>
       </c>
@@ -13970,7 +13970,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>20</v>
       </c>
@@ -13984,7 +13984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>359</v>
       </c>
@@ -13998,7 +13998,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -14018,7 +14018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>19</v>
       </c>
@@ -14032,7 +14032,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>20</v>
       </c>
@@ -14046,7 +14046,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>359</v>
       </c>
@@ -14060,7 +14060,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>363</v>
       </c>
@@ -14074,7 +14074,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>34</v>
       </c>
@@ -14088,7 +14088,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>490</v>
       </c>
@@ -14116,7 +14116,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>406</v>
       </c>
@@ -14136,7 +14136,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>20</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>359</v>
       </c>
@@ -14164,7 +14164,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>363</v>
       </c>
@@ -14178,7 +14178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>34</v>
       </c>
@@ -14192,7 +14192,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -14212,7 +14212,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -14232,7 +14232,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>22</v>
       </c>
@@ -14246,7 +14246,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>92</v>
       </c>
@@ -14266,7 +14266,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>20</v>
       </c>
@@ -14280,7 +14280,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>359</v>
       </c>
@@ -14294,7 +14294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>363</v>
       </c>
@@ -14308,7 +14308,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>34</v>
       </c>
@@ -14322,7 +14322,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>52</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>22</v>
       </c>
@@ -14356,7 +14356,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>19</v>
       </c>
@@ -14370,7 +14370,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>359</v>
       </c>
@@ -14398,7 +14398,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>363</v>
       </c>
@@ -14412,7 +14412,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>34</v>
       </c>
@@ -14426,7 +14426,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>505</v>
       </c>
@@ -14446,7 +14446,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -14460,7 +14460,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>359</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>363</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>34</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -14522,7 +14522,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>19</v>
       </c>
@@ -14536,7 +14536,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>20</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>359</v>
       </c>
@@ -14564,7 +14564,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>363</v>
       </c>
@@ -14578,7 +14578,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>34</v>
       </c>
@@ -14592,7 +14592,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -14612,7 +14612,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>19</v>
       </c>
@@ -14626,7 +14626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>20</v>
       </c>
@@ -14640,7 +14640,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>359</v>
       </c>
@@ -14654,7 +14654,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>363</v>
       </c>
@@ -14668,7 +14668,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>349</v>
       </c>
@@ -14688,7 +14688,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>19</v>
       </c>
@@ -14702,7 +14702,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>20</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>53</v>
       </c>
@@ -14736,7 +14736,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>22</v>
       </c>
@@ -14750,7 +14750,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>19</v>
       </c>
@@ -14764,7 +14764,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>20</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>359</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>78</v>
       </c>
@@ -14812,7 +14812,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>18</v>
       </c>
@@ -14826,7 +14826,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>540</v>
       </c>
@@ -14846,7 +14846,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>20</v>
       </c>
@@ -14860,7 +14860,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>359</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>363</v>
       </c>
@@ -14888,7 +14888,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>34</v>
       </c>
@@ -14902,7 +14902,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>98</v>
       </c>
@@ -14922,7 +14922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>20</v>
       </c>
@@ -14936,7 +14936,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>119</v>
       </c>
@@ -14956,7 +14956,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>91</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
         <v>91</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
         <v>363</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>78</v>
       </c>
@@ -15015,7 +15015,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D116" t="s">
         <v>528</v>
       </c>
@@ -15044,17 +15044,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -15094,7 +15094,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -15108,7 +15108,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -15136,7 +15136,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>359</v>
       </c>
@@ -15150,7 +15150,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>363</v>
       </c>
@@ -15164,7 +15164,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>327</v>
       </c>
@@ -15184,7 +15184,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>20</v>
       </c>
@@ -15198,7 +15198,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>359</v>
       </c>
@@ -15212,7 +15212,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>363</v>
       </c>
@@ -15226,7 +15226,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>34</v>
       </c>
@@ -15240,7 +15240,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>328</v>
       </c>
@@ -15260,7 +15260,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -15274,7 +15274,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>382</v>
       </c>
@@ -15285,7 +15285,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>19</v>
       </c>
@@ -15299,12 +15299,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -15321,7 +15321,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>531</v>
       </c>
@@ -15332,7 +15332,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -15352,7 +15352,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -15366,7 +15366,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -15380,7 +15380,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>359</v>
       </c>
@@ -15394,7 +15394,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>363</v>
       </c>
@@ -15408,7 +15408,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -15428,7 +15428,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>406</v>
       </c>
@@ -15448,7 +15448,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>20</v>
       </c>
@@ -15462,7 +15462,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>359</v>
       </c>
@@ -15476,7 +15476,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>363</v>
       </c>
@@ -15490,7 +15490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>34</v>
       </c>
@@ -15504,7 +15504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>19</v>
       </c>
@@ -15538,7 +15538,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>20</v>
       </c>
@@ -15552,7 +15552,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>466</v>
       </c>
@@ -15572,7 +15572,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -15592,7 +15592,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>22</v>
       </c>
@@ -15606,7 +15606,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -15626,7 +15626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -15640,7 +15640,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>359</v>
       </c>
@@ -15654,7 +15654,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>363</v>
       </c>
@@ -15668,7 +15668,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>34</v>
       </c>
@@ -15682,7 +15682,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -15702,7 +15702,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>22</v>
       </c>
@@ -15716,7 +15716,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>19</v>
       </c>
@@ -15730,7 +15730,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>20</v>
       </c>
@@ -15744,7 +15744,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>359</v>
       </c>
@@ -15758,7 +15758,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>363</v>
       </c>
@@ -15772,7 +15772,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>34</v>
       </c>
@@ -15786,7 +15786,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>505</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>20</v>
       </c>
@@ -15820,7 +15820,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>359</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>151</v>
       </c>
@@ -15854,7 +15854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -15868,7 +15868,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>359</v>
       </c>
@@ -15882,7 +15882,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>363</v>
       </c>
@@ -15896,7 +15896,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>34</v>
       </c>
@@ -15910,7 +15910,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>84</v>
       </c>
@@ -15930,7 +15930,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -15950,7 +15950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>19</v>
       </c>
@@ -15964,7 +15964,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>20</v>
       </c>
@@ -15978,7 +15978,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>359</v>
       </c>
@@ -15992,7 +15992,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>363</v>
       </c>
@@ -16006,7 +16006,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>34</v>
       </c>
@@ -16020,7 +16020,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>53</v>
       </c>
@@ -16040,7 +16040,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -16057,7 +16057,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>519</v>
       </c>
@@ -16068,7 +16068,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>154</v>
       </c>
@@ -16088,7 +16088,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>556</v>
       </c>
@@ -16108,7 +16108,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>20</v>
       </c>
@@ -16122,7 +16122,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>359</v>
       </c>
@@ -16136,7 +16136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>363</v>
       </c>
@@ -16150,7 +16150,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>34</v>
       </c>
@@ -16164,7 +16164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -16184,7 +16184,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>20</v>
       </c>
@@ -16198,7 +16198,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>359</v>
       </c>
@@ -16212,7 +16212,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>363</v>
       </c>
@@ -16243,17 +16243,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16273,7 +16273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -16293,7 +16293,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -16307,7 +16307,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -16321,7 +16321,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -16335,7 +16335,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -16352,7 +16352,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>400</v>
       </c>
@@ -16363,7 +16363,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>327</v>
       </c>
@@ -16383,7 +16383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -16397,7 +16397,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>359</v>
       </c>
@@ -16411,7 +16411,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>363</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>328</v>
       </c>
@@ -16445,7 +16445,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -16459,7 +16459,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>535</v>
       </c>
@@ -16470,12 +16470,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -16495,7 +16495,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -16509,7 +16509,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -16523,7 +16523,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -16543,7 +16543,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -16557,7 +16557,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -16571,7 +16571,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>359</v>
       </c>
@@ -16585,7 +16585,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -16602,7 +16602,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>575</v>
       </c>
@@ -16613,7 +16613,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>406</v>
       </c>
@@ -16633,7 +16633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>20</v>
       </c>
@@ -16647,7 +16647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>359</v>
       </c>
@@ -16661,7 +16661,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>88</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -16695,7 +16695,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -16709,7 +16709,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>359</v>
       </c>
@@ -16723,7 +16723,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>468</v>
       </c>
@@ -16740,7 +16740,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -16760,7 +16760,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -16780,7 +16780,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>20</v>
       </c>
@@ -16794,7 +16794,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>359</v>
       </c>
@@ -16808,7 +16808,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>363</v>
       </c>
@@ -16822,7 +16822,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -16842,7 +16842,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>22</v>
       </c>
@@ -16856,7 +16856,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>19</v>
       </c>
@@ -16870,7 +16870,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>505</v>
       </c>
@@ -16890,7 +16890,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>20</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>359</v>
       </c>
@@ -16918,7 +16918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>363</v>
       </c>
@@ -16932,7 +16932,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>34</v>
       </c>
@@ -16946,7 +16946,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>339</v>
       </c>
@@ -16966,7 +16966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>18</v>
       </c>
@@ -16980,7 +16980,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>18</v>
       </c>
@@ -16994,7 +16994,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -17014,7 +17014,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>19</v>
       </c>
@@ -17028,7 +17028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -17042,7 +17042,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>359</v>
       </c>
@@ -17056,7 +17056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>363</v>
       </c>
@@ -17070,7 +17070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>34</v>
       </c>
@@ -17084,7 +17084,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -17104,7 +17104,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>22</v>
       </c>
@@ -17118,7 +17118,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>19</v>
       </c>
@@ -17132,7 +17132,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>20</v>
       </c>
@@ -17146,7 +17146,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>359</v>
       </c>
@@ -17160,7 +17160,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>363</v>
       </c>
@@ -17174,7 +17174,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>34</v>
       </c>
@@ -17188,7 +17188,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -17205,7 +17205,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
         <v>424</v>
       </c>
@@ -17216,7 +17216,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>587</v>
       </c>
@@ -17236,7 +17236,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>20</v>
       </c>
@@ -17250,7 +17250,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>359</v>
       </c>
@@ -17264,7 +17264,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>363</v>
       </c>
@@ -17278,7 +17278,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>154</v>
       </c>
@@ -17298,7 +17298,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>20</v>
       </c>
@@ -17312,7 +17312,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>119</v>
       </c>
@@ -17332,7 +17332,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>91</v>
       </c>
@@ -17346,7 +17346,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>91</v>
       </c>
@@ -17377,17 +17377,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17407,7 +17407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -17427,7 +17427,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -17441,7 +17441,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -17455,7 +17455,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -17469,7 +17469,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>359</v>
       </c>
@@ -17483,7 +17483,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>363</v>
       </c>
@@ -17497,7 +17497,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -17514,7 +17514,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>589</v>
       </c>
@@ -17525,7 +17525,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>327</v>
       </c>
@@ -17545,7 +17545,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -17559,7 +17559,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>359</v>
       </c>
@@ -17573,7 +17573,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>363</v>
       </c>
@@ -17587,7 +17587,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>328</v>
       </c>
@@ -17607,7 +17607,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>363</v>
       </c>
@@ -17621,7 +17621,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>599</v>
       </c>
@@ -17632,7 +17632,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>363</v>
       </c>
@@ -17646,7 +17646,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>34</v>
       </c>
@@ -17660,7 +17660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -17680,7 +17680,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -17694,7 +17694,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -17708,7 +17708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>359</v>
       </c>
@@ -17722,7 +17722,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>363</v>
       </c>
@@ -17736,7 +17736,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -17756,7 +17756,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>19</v>
       </c>
@@ -17770,7 +17770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>20</v>
       </c>
@@ -17784,7 +17784,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>359</v>
       </c>
@@ -17798,7 +17798,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -17815,7 +17815,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -17835,7 +17835,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -17849,7 +17849,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>329</v>
       </c>
@@ -17869,7 +17869,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>20</v>
       </c>
@@ -17883,7 +17883,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>359</v>
       </c>
@@ -17897,7 +17897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -17917,7 +17917,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>330</v>
       </c>
@@ -17937,7 +17937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -17951,7 +17951,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>359</v>
       </c>
@@ -17965,7 +17965,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>363</v>
       </c>
@@ -17979,7 +17979,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>34</v>
       </c>
@@ -17993,7 +17993,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -18013,7 +18013,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>22</v>
       </c>
@@ -18027,7 +18027,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>19</v>
       </c>
@@ -18041,7 +18041,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>20</v>
       </c>
@@ -18055,7 +18055,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>359</v>
       </c>
@@ -18069,7 +18069,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>151</v>
       </c>
@@ -18089,7 +18089,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>20</v>
       </c>
@@ -18103,7 +18103,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>359</v>
       </c>
@@ -18117,7 +18117,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>363</v>
       </c>
@@ -18131,7 +18131,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>34</v>
       </c>
@@ -18145,7 +18145,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -18165,7 +18165,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -18179,7 +18179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>359</v>
       </c>
@@ -18193,7 +18193,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -18213,7 +18213,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>22</v>
       </c>
@@ -18227,7 +18227,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>19</v>
       </c>
@@ -18241,7 +18241,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -18255,7 +18255,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>359</v>
       </c>
@@ -18269,7 +18269,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -18286,7 +18286,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
         <v>422</v>
       </c>
@@ -18297,7 +18297,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>331</v>
       </c>
@@ -18317,7 +18317,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>119</v>
       </c>
@@ -18337,7 +18337,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>91</v>
       </c>
@@ -18351,7 +18351,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>91</v>
       </c>
@@ -18365,7 +18365,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>363</v>
       </c>
@@ -18396,17 +18396,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -18426,7 +18426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -18446,7 +18446,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -18460,7 +18460,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -18474,7 +18474,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -18491,7 +18491,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>327</v>
       </c>
@@ -18511,7 +18511,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -18525,7 +18525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>359</v>
       </c>
@@ -18539,7 +18539,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>363</v>
       </c>
@@ -18553,7 +18553,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>34</v>
       </c>
@@ -18567,7 +18567,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>328</v>
       </c>
@@ -18587,7 +18587,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -18601,7 +18601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>359</v>
       </c>
@@ -18615,12 +18615,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -18640,7 +18640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>363</v>
       </c>
@@ -18654,7 +18654,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>359</v>
       </c>
@@ -18668,7 +18668,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>363</v>
       </c>
@@ -18682,7 +18682,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>34</v>
       </c>
@@ -18696,7 +18696,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -18716,7 +18716,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -18736,7 +18736,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -18750,7 +18750,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>20</v>
       </c>
@@ -18764,7 +18764,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>359</v>
       </c>
@@ -18778,7 +18778,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>363</v>
       </c>
@@ -18792,7 +18792,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -18809,7 +18809,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>554</v>
       </c>
@@ -18820,7 +18820,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>88</v>
       </c>
@@ -18840,7 +18840,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>20</v>
       </c>
@@ -18854,7 +18854,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>359</v>
       </c>
@@ -18868,7 +18868,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>363</v>
       </c>
@@ -18882,7 +18882,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>330</v>
       </c>
@@ -18902,7 +18902,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>20</v>
       </c>
@@ -18916,7 +18916,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>359</v>
       </c>
@@ -18930,7 +18930,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>363</v>
       </c>
@@ -18944,7 +18944,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -18964,7 +18964,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>22</v>
       </c>
@@ -18978,7 +18978,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -18998,7 +18998,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -19012,7 +19012,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>339</v>
       </c>
@@ -19032,7 +19032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>359</v>
       </c>
@@ -19046,7 +19046,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>363</v>
       </c>
@@ -19060,7 +19060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>34</v>
       </c>
@@ -19074,7 +19074,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>151</v>
       </c>
@@ -19094,7 +19094,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -19108,7 +19108,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>359</v>
       </c>
@@ -19122,7 +19122,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -19142,7 +19142,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>22</v>
       </c>
@@ -19156,7 +19156,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>19</v>
       </c>
@@ -19170,7 +19170,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>20</v>
       </c>
@@ -19184,7 +19184,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>359</v>
       </c>
@@ -19198,7 +19198,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -19215,7 +19215,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
         <v>528</v>
       </c>
@@ -19226,7 +19226,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>90</v>
       </c>
@@ -19246,7 +19246,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>359</v>
       </c>
@@ -19260,7 +19260,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>363</v>
       </c>
@@ -19274,7 +19274,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>34</v>
       </c>
@@ -19288,7 +19288,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>126</v>
       </c>
@@ -19308,7 +19308,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>20</v>
       </c>
@@ -19322,7 +19322,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>359</v>
       </c>
@@ -19336,7 +19336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>363</v>
       </c>
@@ -19350,7 +19350,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>154</v>
       </c>
@@ -19370,7 +19370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>20</v>
       </c>
@@ -19384,7 +19384,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>331</v>
       </c>
@@ -19404,7 +19404,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -19418,7 +19418,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>359</v>
       </c>
@@ -19432,7 +19432,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -19452,7 +19452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>20</v>
       </c>
@@ -19466,7 +19466,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>359</v>
       </c>
@@ -19480,7 +19480,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>119</v>
       </c>

--- a/Tennis/ATP Tour/Andy Roddick.xlsx
+++ b/Tennis/ATP Tour/Andy Roddick.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4077" documentId="13_ncr:1_{0A1EECD3-9448-4D45-9666-76DA02865CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DDA13B9-0A9F-45E3-9B17-88A3264B2014}"/>
+  <xr:revisionPtr revIDLastSave="4079" documentId="13_ncr:1_{0A1EECD3-9448-4D45-9666-76DA02865CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4908E5DF-5FF8-4FF8-BBFA-1E87118D0F15}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="37" r:id="rId1"/>
@@ -4949,7 +4949,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CA1A58C2-CADD-4173-B9CB-ABDE2C47EA08}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5337,8 +5337,8 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5852,8 +5852,8 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6894,8 +6894,8 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7902,8 +7902,8 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8756,8 +8756,8 @@
   </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9398,8 +9398,8 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9786,8 +9786,8 @@
   </sheetPr>
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10846,8 +10846,8 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12113,8 +12113,8 @@
   </sheetPr>
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13578,8 +13578,8 @@
   </sheetPr>
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15040,8 +15040,8 @@
   </sheetPr>
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16239,8 +16239,8 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17373,8 +17373,8 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18392,8 +18392,8 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/ATP Tour/Andy Roddick.xlsx
+++ b/Tennis/ATP Tour/Andy Roddick.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4082" documentId="13_ncr:1_{0A1EECD3-9448-4D45-9666-76DA02865CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{456DD7D9-AE62-4B40-A021-831182A58332}"/>
+  <xr:revisionPtr revIDLastSave="4100" documentId="13_ncr:1_{0A1EECD3-9448-4D45-9666-76DA02865CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89637764-EC30-4261-BED1-D28E266B84A8}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" firstSheet="6" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15345" firstSheet="6" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="37" r:id="rId1"/>
@@ -27,8 +27,6 @@
     <sheet name="2011" sheetId="17" r:id="rId12"/>
     <sheet name="2012" sheetId="18" r:id="rId13"/>
     <sheet name="Stats" sheetId="1" r:id="rId14"/>
-    <sheet name="Wins-Losses" sheetId="38" r:id="rId15"/>
-    <sheet name="Winning Percentile Range" sheetId="39" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2724,13 +2722,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Andy</a:t>
+              <a:t>Andy Roddick (USA): Wins-Losses</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Roddick (USA): Wins-Losses</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2892,7 +2885,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-609D-4F0E-914D-CA7F114904B8}"/>
+              <c16:uniqueId val="{00000000-0FB6-47CD-B734-15F20A195E7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3018,7 +3011,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-609D-4F0E-914D-CA7F114904B8}"/>
+              <c16:uniqueId val="{00000001-0FB6-47CD-B734-15F20A195E7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3032,71 +3025,16 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="534662272"/>
-        <c:axId val="2097910208"/>
+        <c:axId val="832483440"/>
+        <c:axId val="832487760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="534662272"/>
+        <c:axId val="832483440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>YEAR</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3134,7 +3072,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2097910208"/>
+        <c:crossAx val="832487760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3142,7 +3080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2097910208"/>
+        <c:axId val="832487760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3162,61 +3100,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>NUMBER OF MATCHES</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3248,7 +3131,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534662272"/>
+        <c:crossAx val="832483440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3320,6 +3203,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3554,7 +3442,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E708-48F8-A1CE-6C69FB80279D}"/>
+              <c16:uniqueId val="{00000000-1840-4368-ABC5-6BDC327286EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3568,11 +3456,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="423340768"/>
-        <c:axId val="336954736"/>
+        <c:axId val="1286111599"/>
+        <c:axId val="1286105359"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="423340768"/>
+        <c:axId val="1286111599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3670,7 +3558,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336954736"/>
+        <c:crossAx val="1286105359"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3678,7 +3566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="336954736"/>
+        <c:axId val="1286105359"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3784,7 +3672,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423340768"/>
+        <c:crossAx val="1286111599"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3856,6 +3744,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4945,47 +4838,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CA1A58C2-CADD-4173-B9CB-ABDE2C47EA08}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0C92248C-D7D2-4559-8BC5-472962E4D758}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50B14CF1-EE24-91C1-E1C6-5DF6C4AA432B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7426F50A-53B9-FF16-6096-D48F815BA9A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4998,27 +4875,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590548</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C0600D1-64A3-2906-A273-FF2C07E6B36E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E1413DD-25AA-7D2A-B245-60565F8CB756}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5026,13 +4906,17 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5337,7 +5221,7 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5852,7 +5736,7 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6894,7 +6778,7 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7902,7 +7786,7 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8756,7 +8640,7 @@
   </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9399,7 +9283,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9776,6 +9660,7 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9786,7 +9671,7 @@
   </sheetPr>
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10846,7 +10731,7 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12113,7 +11998,7 @@
   </sheetPr>
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13578,7 +13463,7 @@
   </sheetPr>
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15040,7 +14925,7 @@
   </sheetPr>
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -16239,7 +16124,7 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -17373,7 +17258,7 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -18392,7 +18277,7 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
